--- a/capiq_data/in_process_data/IQ301966.xlsx
+++ b/capiq_data/in_process_data/IQ301966.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C17187-B775-458E-A07F-0EB3BB87BC72}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC3EB4D-C50D-425C-B0E3-431D549824D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"07256755-1d81-4de2-b477-b16fe099a7a6"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"8d8944a6-fe79-46b5-8511-72176f481913"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,37 +853,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>1043</v>
+        <v>237.917</v>
       </c>
       <c r="D2">
-        <v>9068</v>
+        <v>2688.482</v>
       </c>
       <c r="E2">
-        <v>8278</v>
+        <v>2768.848</v>
       </c>
       <c r="F2">
-        <v>1879</v>
+        <v>584.17600000000004</v>
       </c>
       <c r="G2">
-        <v>18098</v>
+        <v>7493.2110000000002</v>
       </c>
       <c r="H2">
-        <v>51767</v>
+        <v>17172.731</v>
       </c>
       <c r="I2">
-        <v>2649</v>
+        <v>2034.7249999999999</v>
       </c>
       <c r="J2">
-        <v>5517</v>
+        <v>3573.047</v>
       </c>
       <c r="K2">
-        <v>381</v>
+        <v>556.02</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -772,164 +892,164 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>10865</v>
+        <v>3990.9050000000002</v>
       </c>
       <c r="O2">
-        <v>20323</v>
+        <v>8272.2019999999993</v>
       </c>
       <c r="P2">
-        <v>8119</v>
+        <v>4165.268</v>
       </c>
       <c r="Q2">
-        <v>650</v>
+        <v>15.352</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>108000</v>
+        <v>60000</v>
       </c>
       <c r="T2">
-        <v>31444</v>
+        <v>8900.5290000000005</v>
       </c>
       <c r="U2">
-        <v>1764</v>
+        <v>160.71799999999999</v>
       </c>
       <c r="V2">
-        <v>2398</v>
+        <v>564.22</v>
       </c>
       <c r="W2">
-        <v>-284</v>
+        <v>-107.30800000000001</v>
       </c>
       <c r="X2">
-        <v>933</v>
+        <v>8.2509999999999994</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>-1597</v>
+        <v>474.899</v>
       </c>
       <c r="AA2">
-        <v>1043</v>
+        <v>237.917</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>944</v>
+        <v>235.88800000000001</v>
       </c>
       <c r="D3">
-        <v>8122</v>
+        <v>3013.6570000000002</v>
       </c>
       <c r="E3">
-        <v>8891</v>
+        <v>3172.8040000000001</v>
       </c>
       <c r="F3">
-        <v>1638</v>
+        <v>717.69500000000005</v>
       </c>
       <c r="G3">
-        <v>18211</v>
+        <v>7689.5929999999998</v>
       </c>
       <c r="H3">
-        <v>52372</v>
+        <v>18222.966</v>
       </c>
       <c r="I3">
-        <v>6307</v>
+        <v>3196.3939999999998</v>
       </c>
       <c r="J3">
-        <v>6422</v>
+        <v>3775.1559999999999</v>
       </c>
       <c r="K3">
-        <v>450</v>
+        <v>902.23500000000001</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-2146</v>
+        <v>-20.725999999999999</v>
       </c>
       <c r="N3">
-        <v>10399</v>
+        <v>4707.5259999999998</v>
       </c>
       <c r="O3">
-        <v>20746</v>
+        <v>9201.2900000000009</v>
       </c>
       <c r="P3">
-        <v>8611</v>
+        <v>4719.5770000000002</v>
       </c>
       <c r="Q3">
-        <v>-289</v>
+        <v>-53.616</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>31626</v>
+        <v>9021.6759999999995</v>
       </c>
       <c r="U3">
-        <v>1475</v>
+        <v>107.102</v>
       </c>
       <c r="V3">
-        <v>836</v>
+        <v>187.511</v>
       </c>
       <c r="W3">
-        <v>-291</v>
+        <v>-107.379</v>
       </c>
       <c r="X3">
-        <v>-747</v>
+        <v>513.86300000000006</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>565</v>
+        <v>48.457999999999998</v>
       </c>
       <c r="AA3">
-        <v>944</v>
+        <v>235.88800000000001</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>-93.284999999999997</v>
       </c>
       <c r="D4">
-        <v>8990</v>
+        <v>3771.4380000000001</v>
       </c>
       <c r="E4">
-        <v>9356</v>
+        <v>4253.2330000000002</v>
       </c>
       <c r="F4">
-        <v>1967</v>
+        <v>845.05399999999997</v>
       </c>
       <c r="G4">
-        <v>19942</v>
+        <v>7991.9520000000002</v>
       </c>
       <c r="H4">
-        <v>54019</v>
+        <v>22687.771000000001</v>
       </c>
       <c r="I4">
-        <v>6986</v>
+        <v>4535.7730000000001</v>
       </c>
       <c r="J4">
-        <v>5745</v>
+        <v>6616.5720000000001</v>
       </c>
       <c r="K4">
-        <v>1244</v>
+        <v>1124.0740000000001</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,81 +1058,81 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12376</v>
+        <v>6352.4480000000003</v>
       </c>
       <c r="O4">
-        <v>21957</v>
+        <v>13991.169</v>
       </c>
       <c r="P4">
-        <v>9562</v>
+        <v>7837.9</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>113.399</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>32062</v>
+        <v>8696.6020000000008</v>
       </c>
       <c r="U4">
-        <v>1378</v>
+        <v>220.501</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>47.046999999999997</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>-107.461</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>3174.7220000000002</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>2461.5889999999999</v>
       </c>
       <c r="AA4">
-        <v>1339</v>
+        <v>-93.284999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>1301</v>
+        <v>194.648</v>
       </c>
       <c r="D5">
-        <v>9546</v>
+        <v>3772.473</v>
       </c>
       <c r="E5">
-        <v>9493</v>
+        <v>4493.9660000000003</v>
       </c>
       <c r="F5">
-        <v>2102</v>
+        <v>915.71799999999996</v>
       </c>
       <c r="G5">
-        <v>21260</v>
+        <v>8346.8919999999998</v>
       </c>
       <c r="H5">
-        <v>55581</v>
+        <v>23064.036</v>
       </c>
       <c r="I5">
-        <v>6978</v>
+        <v>4610.6220000000003</v>
       </c>
       <c r="J5">
-        <v>8740</v>
+        <v>6577.5150000000003</v>
       </c>
       <c r="K5">
-        <v>348</v>
+        <v>1196.27</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,81 +1141,81 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11307</v>
+        <v>6523.2650000000003</v>
       </c>
       <c r="O5">
-        <v>23958</v>
+        <v>14160.958000000001</v>
       </c>
       <c r="P5">
-        <v>11483</v>
+        <v>7805.61</v>
       </c>
       <c r="Q5">
-        <v>354</v>
+        <v>6.3879999999999999</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>31623</v>
+        <v>8903.0779999999995</v>
       </c>
       <c r="U5">
-        <v>1732</v>
+        <v>226.88900000000001</v>
       </c>
       <c r="V5">
-        <v>1658</v>
+        <v>630.80399999999997</v>
       </c>
       <c r="W5">
-        <v>-337</v>
+        <v>-107.544</v>
       </c>
       <c r="X5">
-        <v>576</v>
+        <v>-370.363</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>-743</v>
+        <v>73.16</v>
       </c>
       <c r="AA5">
-        <v>1301</v>
+        <v>194.648</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>1413</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>10301</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>9500</v>
+        <v>4028.45</v>
       </c>
       <c r="F6">
-        <v>2373</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>20539</v>
+        <v>7704.89</v>
       </c>
       <c r="H6">
-        <v>55201</v>
+        <v>22326.366999999998</v>
       </c>
       <c r="I6">
-        <v>3389</v>
+        <v>1568.634</v>
       </c>
       <c r="J6">
-        <v>8556</v>
+        <v>6215.7089999999998</v>
       </c>
       <c r="K6">
-        <v>336</v>
+        <v>983.19100000000003</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1104,164 +1224,164 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>10538</v>
+        <v>6217.7849999999999</v>
       </c>
       <c r="O6">
-        <v>23809</v>
+        <v>13310.986999999999</v>
       </c>
       <c r="P6">
-        <v>9933</v>
+        <v>7230.89</v>
       </c>
       <c r="Q6">
-        <v>-27</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>113000</v>
+        <v>81000</v>
       </c>
       <c r="T6">
-        <v>31392</v>
+        <v>9015.3799999999992</v>
       </c>
       <c r="U6">
-        <v>1705</v>
+        <v>177.70400000000001</v>
       </c>
       <c r="V6">
-        <v>2426</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>-332</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>-2293</v>
+        <v>0</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>1217</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>1413</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>1301</v>
+        <v>172.47200000000001</v>
       </c>
       <c r="D7">
-        <v>9809</v>
+        <v>3198.0459999999998</v>
       </c>
       <c r="E7">
-        <v>10401</v>
+        <v>3914.2220000000002</v>
       </c>
       <c r="F7">
-        <v>2044</v>
+        <v>670.76800000000003</v>
       </c>
       <c r="G7">
-        <v>21292</v>
+        <v>7506.2169999999996</v>
       </c>
       <c r="H7">
-        <v>56366</v>
+        <v>22087.958999999999</v>
       </c>
       <c r="I7">
-        <v>7276</v>
+        <v>4134.7460000000001</v>
       </c>
       <c r="J7">
-        <v>8439</v>
+        <v>6479.4139999999998</v>
       </c>
       <c r="K7">
-        <v>432</v>
+        <v>742.05600000000004</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>-234.50800000000001</v>
       </c>
       <c r="M7">
-        <v>-40</v>
+        <v>-785.90499999999997</v>
       </c>
       <c r="N7">
-        <v>10802</v>
+        <v>5628.9579999999996</v>
       </c>
       <c r="O7">
-        <v>23878</v>
+        <v>12994.431</v>
       </c>
       <c r="P7">
-        <v>10167</v>
+        <v>7315.4390000000003</v>
       </c>
       <c r="Q7">
-        <v>-359</v>
+        <v>-50.05</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>32488</v>
+        <v>9093.5280000000002</v>
       </c>
       <c r="U7">
-        <v>1346</v>
+        <v>127.654</v>
       </c>
       <c r="V7">
-        <v>733</v>
+        <v>295.28699999999998</v>
       </c>
       <c r="W7">
-        <v>-334</v>
+        <v>-107.97799999999999</v>
       </c>
       <c r="X7">
-        <v>-356</v>
+        <v>56.92</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>362</v>
+        <v>211.72399999999999</v>
       </c>
       <c r="AA7">
-        <v>1300</v>
+        <v>172.47200000000001</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>1402</v>
+        <v>196.035</v>
       </c>
       <c r="D8">
-        <v>10341</v>
+        <v>3270.547</v>
       </c>
       <c r="E8">
-        <v>10802</v>
+        <v>3900.1959999999999</v>
       </c>
       <c r="F8">
-        <v>2222</v>
+        <v>714.02099999999996</v>
       </c>
       <c r="G8">
-        <v>21040</v>
+        <v>7810.6869999999999</v>
       </c>
       <c r="H8">
-        <v>57013</v>
+        <v>22848.362000000001</v>
       </c>
       <c r="I8">
-        <v>7381</v>
+        <v>4244.8500000000004</v>
       </c>
       <c r="J8">
-        <v>7953</v>
+        <v>7170.5320000000002</v>
       </c>
       <c r="K8">
-        <v>498</v>
+        <v>752.32799999999997</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1270,81 +1390,81 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11526</v>
+        <v>5712.9930000000004</v>
       </c>
       <c r="O8">
-        <v>24046</v>
+        <v>13682.763000000001</v>
       </c>
       <c r="P8">
-        <v>10474</v>
+        <v>8042.76</v>
       </c>
       <c r="Q8">
-        <v>175</v>
+        <v>25.704999999999998</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>32967</v>
+        <v>9165.5990000000002</v>
       </c>
       <c r="U8">
-        <v>1521</v>
+        <v>153.35900000000001</v>
       </c>
       <c r="V8">
-        <v>683</v>
+        <v>396.738</v>
       </c>
       <c r="W8">
-        <v>-367</v>
+        <v>-108.044</v>
       </c>
       <c r="X8">
-        <v>-219</v>
+        <v>332.387</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>784</v>
+        <v>-259.25900000000001</v>
       </c>
       <c r="AA8">
-        <v>1403</v>
+        <v>196.035</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>1424</v>
+        <v>172.83699999999999</v>
       </c>
       <c r="D9">
-        <v>10498</v>
+        <v>3388.9850000000001</v>
       </c>
       <c r="E9">
-        <v>11450</v>
+        <v>3746.09</v>
       </c>
       <c r="F9">
-        <v>2261</v>
+        <v>689.70399999999995</v>
       </c>
       <c r="G9">
-        <v>22951</v>
+        <v>7480.2309999999998</v>
       </c>
       <c r="H9">
-        <v>59441</v>
+        <v>22408.367999999999</v>
       </c>
       <c r="I9">
-        <v>7809</v>
+        <v>4166.8450000000003</v>
       </c>
       <c r="J9">
-        <v>9397</v>
+        <v>6757.09</v>
       </c>
       <c r="K9">
-        <v>560</v>
+        <v>682.83799999999997</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1353,81 +1473,81 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11532</v>
+        <v>5525.8440000000001</v>
       </c>
       <c r="O9">
-        <v>25130</v>
+        <v>13057.637000000001</v>
       </c>
       <c r="P9">
-        <v>11189</v>
+        <v>7518.6760000000004</v>
       </c>
       <c r="Q9">
-        <v>331</v>
+        <v>0.47199999999999998</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>34311</v>
+        <v>9350.7309999999998</v>
       </c>
       <c r="U9">
-        <v>1852</v>
+        <v>153.83099999999999</v>
       </c>
       <c r="V9">
-        <v>2096</v>
+        <v>738.34699999999998</v>
       </c>
       <c r="W9">
-        <v>-366</v>
+        <v>-108.242</v>
       </c>
       <c r="X9">
-        <v>230</v>
+        <v>-619.40599999999995</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>-925</v>
+        <v>237.1</v>
       </c>
       <c r="AA9">
-        <v>1424</v>
+        <v>172.83699999999999</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>1363</v>
+        <v>-2861.3389999999999</v>
       </c>
       <c r="D10">
-        <v>11083</v>
+        <v>3259.9839999999999</v>
       </c>
       <c r="E10">
-        <v>11351</v>
+        <v>3489.4059999999999</v>
       </c>
       <c r="F10">
-        <v>2322</v>
+        <v>742.327</v>
       </c>
       <c r="G10">
-        <v>24156</v>
+        <v>7185.44</v>
       </c>
       <c r="H10">
-        <v>61547</v>
+        <v>19435.195</v>
       </c>
       <c r="I10">
-        <v>3550</v>
+        <v>999</v>
       </c>
       <c r="J10">
-        <v>9509</v>
+        <v>6028.549</v>
       </c>
       <c r="K10">
-        <v>958</v>
+        <v>682.95600000000002</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1436,164 +1556,164 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12368</v>
+        <v>6450.9179999999997</v>
       </c>
       <c r="O10">
-        <v>26689</v>
+        <v>13275.53</v>
       </c>
       <c r="P10">
-        <v>11630</v>
+        <v>7164.0820000000003</v>
       </c>
       <c r="Q10">
-        <v>53</v>
+        <v>14.279</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>118000</v>
+        <v>78500</v>
       </c>
       <c r="T10">
-        <v>34858</v>
+        <v>6159.665</v>
       </c>
       <c r="U10">
-        <v>1905</v>
+        <v>168.11</v>
       </c>
       <c r="V10">
-        <v>3176</v>
+        <v>777.93100000000004</v>
       </c>
       <c r="W10">
-        <v>-365</v>
+        <v>-108.87</v>
       </c>
       <c r="X10">
-        <v>6</v>
+        <v>-582.18499999999995</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>-1449</v>
+        <v>-138.23099999999999</v>
       </c>
       <c r="AA10">
-        <v>1363</v>
+        <v>-2861.3389999999999</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>1259</v>
+        <v>149.16200000000001</v>
       </c>
       <c r="D11">
-        <v>10570</v>
+        <v>2388.8409999999999</v>
       </c>
       <c r="E11">
-        <v>11502</v>
+        <v>3657.7539999999999</v>
       </c>
       <c r="F11">
-        <v>2161</v>
+        <v>473.52</v>
       </c>
       <c r="G11">
-        <v>23727</v>
+        <v>7105.14</v>
       </c>
       <c r="H11">
-        <v>61428</v>
+        <v>19243.88</v>
       </c>
       <c r="I11">
-        <v>7690</v>
+        <v>4374.34</v>
       </c>
       <c r="J11">
-        <v>8138</v>
+        <v>6145.5569999999998</v>
       </c>
       <c r="K11">
-        <v>966</v>
+        <v>621.81200000000001</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>-63.402000000000001</v>
       </c>
       <c r="M11">
-        <v>-445</v>
+        <v>-100.639</v>
       </c>
       <c r="N11">
-        <v>12771</v>
+        <v>6126.69</v>
       </c>
       <c r="O11">
-        <v>25647</v>
+        <v>13080.781999999999</v>
       </c>
       <c r="P11">
-        <v>11100</v>
+        <v>7168.2709999999997</v>
       </c>
       <c r="Q11">
-        <v>224</v>
+        <v>-22.603999999999999</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>35781</v>
+        <v>6163.098</v>
       </c>
       <c r="U11">
-        <v>2129</v>
+        <v>145.506</v>
       </c>
       <c r="V11">
-        <v>1119</v>
+        <v>81.971000000000004</v>
       </c>
       <c r="W11">
-        <v>-365</v>
+        <v>-108.90300000000001</v>
       </c>
       <c r="X11">
-        <v>-785</v>
+        <v>-174.48</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>910</v>
+        <v>270.85300000000001</v>
       </c>
       <c r="AA11">
-        <v>1259</v>
+        <v>149.16200000000001</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>2095</v>
+        <v>112.122</v>
       </c>
       <c r="D12">
-        <v>11182</v>
+        <v>2541.1379999999999</v>
       </c>
       <c r="E12">
-        <v>11277</v>
+        <v>3785.5720000000001</v>
       </c>
       <c r="F12">
-        <v>2470</v>
+        <v>539.774</v>
       </c>
       <c r="G12">
-        <v>23799</v>
+        <v>9008.3430000000008</v>
       </c>
       <c r="H12">
-        <v>63251</v>
+        <v>20992.705999999998</v>
       </c>
       <c r="I12">
-        <v>7687</v>
+        <v>4492.8819999999996</v>
       </c>
       <c r="J12">
-        <v>9098</v>
+        <v>6353.4709999999995</v>
       </c>
       <c r="K12">
-        <v>775</v>
+        <v>589.30399999999997</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1602,81 +1722,81 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12454</v>
+        <v>7570.6120000000001</v>
       </c>
       <c r="O12">
-        <v>26203</v>
+        <v>14744.909</v>
       </c>
       <c r="P12">
-        <v>11956</v>
+        <v>8675.4150000000009</v>
       </c>
       <c r="Q12">
-        <v>457</v>
+        <v>118.459</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>37048</v>
+        <v>6247.7969999999996</v>
       </c>
       <c r="U12">
-        <v>2586</v>
+        <v>263.96499999999997</v>
       </c>
       <c r="V12">
-        <v>2643</v>
+        <v>556.64599999999996</v>
       </c>
       <c r="W12">
-        <v>-416</v>
+        <v>-109.164</v>
       </c>
       <c r="X12">
-        <v>-91</v>
+        <v>1253.423</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>-660</v>
+        <v>-1474.7370000000001</v>
       </c>
       <c r="AA12">
-        <v>2095</v>
+        <v>112.122</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>1714</v>
+        <v>-55.323</v>
       </c>
       <c r="D13">
-        <v>11608</v>
+        <v>2544.875</v>
       </c>
       <c r="E13">
-        <v>12057</v>
+        <v>3759.873</v>
       </c>
       <c r="F13">
-        <v>2682</v>
+        <v>330.23200000000003</v>
       </c>
       <c r="G13">
-        <v>25093</v>
+        <v>7531.7569999999996</v>
       </c>
       <c r="H13">
-        <v>65123</v>
+        <v>19016.921999999999</v>
       </c>
       <c r="I13">
-        <v>8348</v>
+        <v>4148.6170000000002</v>
       </c>
       <c r="J13">
-        <v>9916</v>
+        <v>6178.82</v>
       </c>
       <c r="K13">
-        <v>622</v>
+        <v>556.90200000000004</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1685,81 +1805,81 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12753</v>
+        <v>5902.8109999999997</v>
       </c>
       <c r="O13">
-        <v>27092</v>
+        <v>12937.944</v>
       </c>
       <c r="P13">
-        <v>12414</v>
+        <v>7135.13</v>
       </c>
       <c r="Q13">
-        <v>563</v>
+        <v>-123.167</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>38031</v>
+        <v>6078.9780000000001</v>
       </c>
       <c r="U13">
-        <v>3149</v>
+        <v>140.798</v>
       </c>
       <c r="V13">
-        <v>2807</v>
+        <v>521.79899999999998</v>
       </c>
       <c r="W13">
-        <v>-415</v>
+        <v>-109.229</v>
       </c>
       <c r="X13">
-        <v>-678</v>
+        <v>-1785.2049999999999</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>713</v>
+        <v>1124.7950000000001</v>
       </c>
       <c r="AA13">
-        <v>1715</v>
+        <v>-55.323</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>1664</v>
+        <v>177.041</v>
       </c>
       <c r="D14">
-        <v>11906</v>
+        <v>2542.3609999999999</v>
       </c>
       <c r="E14">
-        <v>11497</v>
+        <v>2568.4250000000002</v>
       </c>
       <c r="F14">
-        <v>2622</v>
+        <v>747.05799999999999</v>
       </c>
       <c r="G14">
-        <v>26225</v>
+        <v>10369.120999999999</v>
       </c>
       <c r="H14">
-        <v>67100</v>
+        <v>20041.326000000001</v>
       </c>
       <c r="I14">
-        <v>4155</v>
+        <v>885.54499999999996</v>
       </c>
       <c r="J14">
-        <v>10393</v>
+        <v>6097.4179999999997</v>
       </c>
       <c r="K14">
-        <v>964</v>
+        <v>521.49</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1768,164 +1888,164 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>13525</v>
+        <v>6794.73</v>
       </c>
       <c r="O14">
-        <v>27465</v>
+        <v>13761.707</v>
       </c>
       <c r="P14">
-        <v>13176</v>
+        <v>7508.5860000000002</v>
       </c>
       <c r="Q14">
-        <v>323</v>
+        <v>93.394000000000005</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>123000</v>
+        <v>77000</v>
       </c>
       <c r="T14">
-        <v>39635</v>
+        <v>6279.6189999999997</v>
       </c>
       <c r="U14">
-        <v>3472</v>
+        <v>234.19200000000001</v>
       </c>
       <c r="V14">
-        <v>4119</v>
+        <v>873.97799999999995</v>
       </c>
       <c r="W14">
-        <v>-412</v>
+        <v>-109.727</v>
       </c>
       <c r="X14">
-        <v>-645</v>
+        <v>123.92400000000001</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>-2211</v>
+        <v>-961.02099999999996</v>
       </c>
       <c r="AA14">
-        <v>1664</v>
+        <v>177.041</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>1592</v>
+        <v>220.286</v>
       </c>
       <c r="D15">
-        <v>11239</v>
+        <v>2672.9679999999998</v>
       </c>
       <c r="E15">
-        <v>11680</v>
+        <v>2819.721</v>
       </c>
       <c r="F15">
-        <v>2494</v>
+        <v>571.90099999999995</v>
       </c>
       <c r="G15">
-        <v>25353</v>
+        <v>8020.5479999999998</v>
       </c>
       <c r="H15">
-        <v>66717</v>
+        <v>17336.304</v>
       </c>
       <c r="I15">
-        <v>8254</v>
+        <v>3409.2869999999998</v>
       </c>
       <c r="J15">
-        <v>11120</v>
+        <v>4221.924</v>
       </c>
       <c r="K15">
-        <v>741</v>
+        <v>603.95899999999995</v>
       </c>
       <c r="L15">
-        <v>-222</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>-1574</v>
+        <v>-1618.4970000000001</v>
       </c>
       <c r="N15">
-        <v>11899</v>
+        <v>6199.3590000000004</v>
       </c>
       <c r="O15">
-        <v>26537</v>
+        <v>11215.504000000001</v>
       </c>
       <c r="P15">
-        <v>12489</v>
+        <v>5975.34</v>
       </c>
       <c r="Q15">
-        <v>280</v>
+        <v>-76.864000000000004</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>40180</v>
+        <v>6120.8</v>
       </c>
       <c r="U15">
-        <v>3752</v>
+        <v>157.328</v>
       </c>
       <c r="V15">
-        <v>1837</v>
+        <v>154.36099999999999</v>
       </c>
       <c r="W15">
-        <v>-410</v>
+        <v>-109.849</v>
       </c>
       <c r="X15">
-        <v>-1708</v>
+        <v>-1568.4269999999999</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>1576</v>
+        <v>241.404</v>
       </c>
       <c r="AA15">
-        <v>1592</v>
+        <v>220.286</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>1595</v>
+        <v>355.60700000000003</v>
       </c>
       <c r="D16">
-        <v>12054</v>
+        <v>2833.6</v>
       </c>
       <c r="E16">
-        <v>12251</v>
+        <v>2778.049</v>
       </c>
       <c r="F16">
-        <v>2785</v>
+        <v>601.62599999999998</v>
       </c>
       <c r="G16">
-        <v>25414</v>
+        <v>7085.3429999999998</v>
       </c>
       <c r="H16">
-        <v>68086</v>
+        <v>15734.583000000001</v>
       </c>
       <c r="I16">
-        <v>8676</v>
+        <v>3220.3</v>
       </c>
       <c r="J16">
-        <v>11740</v>
+        <v>3747.2489999999998</v>
       </c>
       <c r="K16">
-        <v>668</v>
+        <v>537.75900000000001</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,81 +2054,81 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12251</v>
+        <v>4913.1710000000003</v>
       </c>
       <c r="O16">
-        <v>27384</v>
+        <v>9466.3089999999993</v>
       </c>
       <c r="P16">
-        <v>13245</v>
+        <v>4438.777</v>
       </c>
       <c r="Q16">
-        <v>-1485</v>
+        <v>12.878</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>40702</v>
+        <v>6268.2740000000003</v>
       </c>
       <c r="U16">
-        <v>2267</v>
+        <v>170.20599999999999</v>
       </c>
       <c r="V16">
-        <v>2382</v>
+        <v>432.93900000000002</v>
       </c>
       <c r="W16">
-        <v>-522</v>
+        <v>-110.375</v>
       </c>
       <c r="X16">
-        <v>-1265</v>
+        <v>-1763.5350000000001</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>-1227</v>
+        <v>342.26900000000001</v>
       </c>
       <c r="AA16">
-        <v>1595</v>
+        <v>355.60700000000003</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>318.20499999999998</v>
       </c>
       <c r="D17">
-        <v>12646</v>
+        <v>2905.9270000000001</v>
       </c>
       <c r="E17">
-        <v>12352</v>
+        <v>2893.8820000000001</v>
       </c>
       <c r="F17">
-        <v>2957</v>
+        <v>618.68899999999996</v>
       </c>
       <c r="G17">
-        <v>25473</v>
+        <v>6869.6769999999997</v>
       </c>
       <c r="H17">
-        <v>68320</v>
+        <v>15655.475</v>
       </c>
       <c r="I17">
-        <v>8864</v>
+        <v>3189.8049999999998</v>
       </c>
       <c r="J17">
-        <v>11641</v>
+        <v>3738.4059999999999</v>
       </c>
       <c r="K17">
-        <v>1424</v>
+        <v>524.25400000000002</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2017,81 +2137,81 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12388</v>
+        <v>4777.96</v>
       </c>
       <c r="O17">
-        <v>27633</v>
+        <v>9330.2970000000005</v>
       </c>
       <c r="P17">
-        <v>13092</v>
+        <v>4383.4790000000003</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>279.995</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>40687</v>
+        <v>6325.1779999999999</v>
       </c>
       <c r="U17">
-        <v>3118</v>
+        <v>201.20099999999999</v>
       </c>
       <c r="V17">
-        <v>0</v>
+        <v>634.75300000000004</v>
       </c>
       <c r="W17">
-        <v>0</v>
+        <v>-110.66800000000001</v>
       </c>
       <c r="X17">
-        <v>0</v>
+        <v>-321.786</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>-27.436</v>
       </c>
       <c r="AA17">
-        <v>1949</v>
+        <v>318.20499999999998</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>302</v>
+        <v>329.77199999999999</v>
       </c>
       <c r="D18">
-        <v>12641</v>
+        <v>3067.67</v>
       </c>
       <c r="E18">
-        <v>11171</v>
+        <v>2633.049</v>
       </c>
       <c r="F18">
-        <v>2951</v>
+        <v>667.97699999999998</v>
       </c>
       <c r="G18">
-        <v>24694</v>
+        <v>7059.7489999999998</v>
       </c>
       <c r="H18">
-        <v>66904</v>
+        <v>16000.777</v>
       </c>
       <c r="I18">
-        <v>4344</v>
+        <v>1037.79</v>
       </c>
       <c r="J18">
-        <v>10607</v>
+        <v>3944.18</v>
       </c>
       <c r="K18">
-        <v>1521</v>
+        <v>572.48699999999997</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2100,164 +2220,164 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>14176</v>
+        <v>4701.2</v>
       </c>
       <c r="O18">
-        <v>28855</v>
+        <v>9467.6020000000008</v>
       </c>
       <c r="P18">
-        <v>13372</v>
+        <v>4660.0519999999997</v>
       </c>
       <c r="Q18">
-        <v>12</v>
+        <v>-226.69800000000001</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>120000</v>
+        <v>52500</v>
       </c>
       <c r="T18">
-        <v>38049</v>
+        <v>6533.1750000000002</v>
       </c>
       <c r="U18">
-        <v>3130</v>
+        <v>223.50299999999999</v>
       </c>
       <c r="V18">
-        <v>3913</v>
+        <v>690.22400000000005</v>
       </c>
       <c r="W18">
-        <v>-517</v>
+        <v>-110.327</v>
       </c>
       <c r="X18">
-        <v>-1223</v>
+        <v>63.332000000000001</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>-701</v>
+        <v>713.245</v>
       </c>
       <c r="AA18">
-        <v>302</v>
+        <v>329.77199999999999</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>975</v>
+        <v>523.40899999999999</v>
       </c>
       <c r="D19">
-        <v>10248</v>
+        <v>3159.1109999999999</v>
       </c>
       <c r="E19">
-        <v>10443</v>
+        <v>2979.8319999999999</v>
       </c>
       <c r="F19">
-        <v>2152</v>
+        <v>753.97900000000004</v>
       </c>
       <c r="G19">
-        <v>23394</v>
+        <v>7498.8220000000001</v>
       </c>
       <c r="H19">
-        <v>65411</v>
+        <v>16402.810000000001</v>
       </c>
       <c r="I19">
-        <v>8311</v>
+        <v>3028.36</v>
       </c>
       <c r="J19">
-        <v>8958</v>
+        <v>3946.058</v>
       </c>
       <c r="K19">
-        <v>648</v>
+        <v>584.59799999999996</v>
       </c>
       <c r="L19">
-        <v>-902</v>
+        <v>-72.284000000000006</v>
       </c>
       <c r="M19">
-        <v>-1144</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>14572</v>
+        <v>4705.9650000000001</v>
       </c>
       <c r="O19">
-        <v>27545</v>
+        <v>9489.2559999999994</v>
       </c>
       <c r="P19">
-        <v>12786</v>
+        <v>4568.3069999999998</v>
       </c>
       <c r="Q19">
-        <v>-1009</v>
+        <v>-1.262</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>37866</v>
+        <v>6913.5540000000001</v>
       </c>
       <c r="U19">
-        <v>2121</v>
+        <v>222.24100000000001</v>
       </c>
       <c r="V19">
-        <v>1770</v>
+        <v>352.98599999999999</v>
       </c>
       <c r="W19">
-        <v>-512</v>
+        <v>-110.339</v>
       </c>
       <c r="X19">
-        <v>-1525</v>
+        <v>-192.447</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>-307</v>
+        <v>-72.132999999999996</v>
       </c>
       <c r="AA19">
-        <v>975</v>
+        <v>523.40899999999999</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>482.20100000000002</v>
       </c>
       <c r="D20">
-        <v>9010</v>
+        <v>3428.6320000000001</v>
       </c>
       <c r="E20">
-        <v>9569</v>
+        <v>3056.509</v>
       </c>
       <c r="F20">
-        <v>1874</v>
+        <v>879.57799999999997</v>
       </c>
       <c r="G20">
-        <v>22861</v>
+        <v>7559.0510000000004</v>
       </c>
       <c r="H20">
-        <v>64753</v>
+        <v>16892.617999999999</v>
       </c>
       <c r="I20">
-        <v>7417</v>
+        <v>3281.1930000000002</v>
       </c>
       <c r="J20">
-        <v>9130</v>
+        <v>3779.4369999999999</v>
       </c>
       <c r="K20">
-        <v>2139</v>
+        <v>564.76700000000005</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,81 +2386,81 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>13774</v>
+        <v>5064.4750000000004</v>
       </c>
       <c r="O20">
-        <v>26568</v>
+        <v>9692.3960000000006</v>
       </c>
       <c r="P20">
-        <v>13361</v>
+        <v>4470.5280000000002</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>-49.746000000000002</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>38185</v>
+        <v>7200.2219999999998</v>
       </c>
       <c r="U20">
-        <v>3541</v>
+        <v>172.495</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>731.60299999999995</v>
       </c>
       <c r="W20">
-        <v>0</v>
+        <v>-123.81399999999999</v>
       </c>
       <c r="X20">
-        <v>0</v>
+        <v>-350.57499999999999</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>-21.837</v>
       </c>
       <c r="AA20">
-        <v>1124</v>
+        <v>482.20100000000002</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>989</v>
+        <v>540.803</v>
       </c>
       <c r="D21">
-        <v>8472</v>
+        <v>3698.0929999999998</v>
       </c>
       <c r="E21">
-        <v>9372</v>
+        <v>3260.056</v>
       </c>
       <c r="F21">
-        <v>1674</v>
+        <v>936.50199999999995</v>
       </c>
       <c r="G21">
-        <v>21532</v>
+        <v>7772.326</v>
       </c>
       <c r="H21">
-        <v>63342</v>
+        <v>17235.556</v>
       </c>
       <c r="I21">
-        <v>7120</v>
+        <v>3121.8679999999999</v>
       </c>
       <c r="J21">
-        <v>7511</v>
+        <v>3743.8470000000002</v>
       </c>
       <c r="K21">
-        <v>1511</v>
+        <v>552.59400000000005</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,81 +2469,81 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>14010</v>
+        <v>4872.1779999999999</v>
       </c>
       <c r="O21">
-        <v>25163</v>
+        <v>9488.9740000000002</v>
       </c>
       <c r="P21">
-        <v>12272</v>
+        <v>4418.1220000000003</v>
       </c>
       <c r="Q21">
-        <v>-369</v>
+        <v>11.326000000000001</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>38179</v>
+        <v>7746.5820000000003</v>
       </c>
       <c r="U21">
-        <v>3172</v>
+        <v>183.821</v>
       </c>
       <c r="V21">
-        <v>2543</v>
+        <v>816.024</v>
       </c>
       <c r="W21">
-        <v>-635</v>
+        <v>-123.489</v>
       </c>
       <c r="X21">
-        <v>-2192</v>
+        <v>-227.11500000000001</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>329</v>
+        <v>-142.20699999999999</v>
       </c>
       <c r="AA21">
-        <v>989</v>
+        <v>540.803</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>-1016</v>
+        <v>660.55399999999997</v>
       </c>
       <c r="D22">
-        <v>7744</v>
+        <v>4023.346</v>
       </c>
       <c r="E22">
-        <v>8780</v>
+        <v>3383.8029999999999</v>
       </c>
       <c r="F22">
-        <v>1451</v>
+        <v>1107.729</v>
       </c>
       <c r="G22">
-        <v>26912</v>
+        <v>8553.9130000000005</v>
       </c>
       <c r="H22">
-        <v>68005</v>
+        <v>18077.491999999998</v>
       </c>
       <c r="I22">
-        <v>3243</v>
+        <v>1070</v>
       </c>
       <c r="J22">
-        <v>14464</v>
+        <v>3591.3380000000002</v>
       </c>
       <c r="K22">
-        <v>1546</v>
+        <v>527.41999999999996</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2432,164 +2552,164 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>14121</v>
+        <v>5432.8879999999999</v>
       </c>
       <c r="O22">
-        <v>32100</v>
+        <v>9980.7250000000004</v>
       </c>
       <c r="P22">
-        <v>19021</v>
+        <v>4387.9160000000002</v>
       </c>
       <c r="Q22">
-        <v>-379</v>
+        <v>7.133</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>95000</v>
+        <v>60000</v>
       </c>
       <c r="T22">
-        <v>35905</v>
+        <v>8096.7669999999998</v>
       </c>
       <c r="U22">
-        <v>2793</v>
+        <v>190.95400000000001</v>
       </c>
       <c r="V22">
-        <v>2178</v>
+        <v>1106.2439999999999</v>
       </c>
       <c r="W22">
-        <v>-633</v>
+        <v>-123.941</v>
       </c>
       <c r="X22">
-        <v>5677</v>
+        <v>-223.55500000000001</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>-6787</v>
+        <v>-360.41</v>
       </c>
       <c r="AA22">
-        <v>-1016</v>
+        <v>660.55399999999997</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>501</v>
+        <v>722.51099999999997</v>
       </c>
       <c r="D23">
-        <v>6520</v>
+        <v>4239.0169999999998</v>
       </c>
       <c r="E23">
-        <v>8382</v>
+        <v>3760.5050000000001</v>
       </c>
       <c r="F23">
-        <v>1060</v>
+        <v>1247.126</v>
       </c>
       <c r="G23">
-        <v>27700</v>
+        <v>8687.6029999999992</v>
       </c>
       <c r="H23">
-        <v>69141</v>
+        <v>18541.536</v>
       </c>
       <c r="I23">
-        <v>6692</v>
+        <v>3301.3420000000001</v>
       </c>
       <c r="J23">
-        <v>17260</v>
+        <v>3635.1559999999999</v>
       </c>
       <c r="K23">
-        <v>987</v>
+        <v>575.04600000000005</v>
       </c>
       <c r="L23">
-        <v>-561</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>-500</v>
+        <v>-9.0950000000000006</v>
       </c>
       <c r="N23">
-        <v>12880</v>
+        <v>5337.5309999999999</v>
       </c>
       <c r="O23">
-        <v>33479</v>
+        <v>9861.348</v>
       </c>
       <c r="P23">
-        <v>21514</v>
+        <v>4437.3519999999999</v>
       </c>
       <c r="Q23">
-        <v>-713</v>
+        <v>-37.637</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>35662</v>
+        <v>8680.1880000000001</v>
       </c>
       <c r="U23">
-        <v>2080</v>
+        <v>153.31700000000001</v>
       </c>
       <c r="V23">
-        <v>1210</v>
+        <v>565.22400000000005</v>
       </c>
       <c r="W23">
-        <v>-629</v>
+        <v>-123.857</v>
       </c>
       <c r="X23">
-        <v>1587</v>
+        <v>-174.577</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>-2093</v>
+        <v>184.47</v>
       </c>
       <c r="AA23">
-        <v>501</v>
+        <v>722.51099999999997</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>-2160</v>
+        <v>856.9</v>
       </c>
       <c r="D24">
-        <v>7164</v>
+        <v>4686.7749999999996</v>
       </c>
       <c r="E24">
-        <v>9374</v>
+        <v>3944.7130000000002</v>
       </c>
       <c r="F24">
-        <v>849</v>
+        <v>1444.8489999999999</v>
       </c>
       <c r="G24">
-        <v>27195</v>
+        <v>7866.884</v>
       </c>
       <c r="H24">
-        <v>81171</v>
+        <v>20224.366999999998</v>
       </c>
       <c r="I24">
-        <v>9355</v>
+        <v>3555.7890000000002</v>
       </c>
       <c r="J24">
-        <v>18287</v>
+        <v>4137.1239999999998</v>
       </c>
       <c r="K24">
-        <v>986</v>
+        <v>801.63300000000004</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,81 +2718,81 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>14609</v>
+        <v>6098.9620000000004</v>
       </c>
       <c r="O24">
-        <v>38192</v>
+        <v>11130.264999999999</v>
       </c>
       <c r="P24">
-        <v>21658</v>
+        <v>5350.1220000000003</v>
       </c>
       <c r="Q24">
-        <v>867</v>
+        <v>19.695</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>42979</v>
+        <v>9094.1020000000008</v>
       </c>
       <c r="U24">
-        <v>2947</v>
+        <v>173.012</v>
       </c>
       <c r="V24">
-        <v>1632</v>
+        <v>1234.318</v>
       </c>
       <c r="W24">
-        <v>-626</v>
+        <v>-147.50700000000001</v>
       </c>
       <c r="X24">
-        <v>-3510</v>
+        <v>597.13099999999997</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>5569</v>
+        <v>1482.569</v>
       </c>
       <c r="AA24">
-        <v>-2160</v>
+        <v>856.9</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>177</v>
+        <v>999.82399999999996</v>
       </c>
       <c r="D25">
-        <v>7019</v>
+        <v>4954.8180000000002</v>
       </c>
       <c r="E25">
-        <v>9565</v>
+        <v>4143.2079999999996</v>
       </c>
       <c r="F25">
-        <v>877</v>
+        <v>1593.2629999999999</v>
       </c>
       <c r="G25">
-        <v>26425</v>
+        <v>7991.9809999999998</v>
       </c>
       <c r="H25">
-        <v>80594</v>
+        <v>20736.866999999998</v>
       </c>
       <c r="I25">
-        <v>9378</v>
+        <v>3704.3679999999999</v>
       </c>
       <c r="J25">
-        <v>17570</v>
+        <v>3930.8490000000002</v>
       </c>
       <c r="K25">
-        <v>1951</v>
+        <v>704.80200000000002</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,81 +2801,81 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>14972</v>
+        <v>6243.1040000000003</v>
       </c>
       <c r="O25">
-        <v>38020</v>
+        <v>11137.406000000001</v>
       </c>
       <c r="P25">
-        <v>21309</v>
+        <v>5165.3490000000002</v>
       </c>
       <c r="Q25">
-        <v>494</v>
+        <v>-16.890999999999998</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>42574</v>
+        <v>9599.4609999999993</v>
       </c>
       <c r="U25">
-        <v>3441</v>
+        <v>156.12100000000001</v>
       </c>
       <c r="V25">
-        <v>1406</v>
+        <v>1324.317</v>
       </c>
       <c r="W25">
-        <v>-696</v>
+        <v>-148.351</v>
       </c>
       <c r="X25">
-        <v>-1116</v>
+        <v>-791.56600000000003</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>963</v>
+        <v>176.32499999999999</v>
       </c>
       <c r="AA25">
-        <v>176</v>
+        <v>999.82399999999996</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>-205</v>
+        <v>1130.616</v>
       </c>
       <c r="D26">
-        <v>7107</v>
+        <v>5349.8680000000004</v>
       </c>
       <c r="E26">
-        <v>9387</v>
+        <v>4242</v>
       </c>
       <c r="F26">
-        <v>914</v>
+        <v>1772.1869999999999</v>
       </c>
       <c r="G26">
-        <v>23927</v>
+        <v>9185.6620000000003</v>
       </c>
       <c r="H26">
-        <v>77956</v>
+        <v>22832.137999999999</v>
       </c>
       <c r="I26">
-        <v>4004</v>
+        <v>2950.0169999999998</v>
       </c>
       <c r="J26">
-        <v>16463</v>
+        <v>4663.942</v>
       </c>
       <c r="K26">
-        <v>2953</v>
+        <v>718.61</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,164 +2884,164 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>15059</v>
+        <v>6454.7950000000001</v>
       </c>
       <c r="O26">
-        <v>36427</v>
+        <v>12412.254999999999</v>
       </c>
       <c r="P26">
-        <v>19616</v>
+        <v>5985.4709999999995</v>
       </c>
       <c r="Q26">
-        <v>-512</v>
+        <v>9.6959999999999997</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>100000</v>
+        <v>70000</v>
       </c>
       <c r="T26">
-        <v>41529</v>
+        <v>10419.883</v>
       </c>
       <c r="U26">
-        <v>2929</v>
+        <v>165.81700000000001</v>
       </c>
       <c r="V26">
-        <v>2013</v>
+        <v>1657.55</v>
       </c>
       <c r="W26">
-        <v>-696</v>
+        <v>-147.958</v>
       </c>
       <c r="X26">
-        <v>-2389</v>
+        <v>659.51800000000003</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>1105</v>
+        <v>-1142.3779999999999</v>
       </c>
       <c r="AA26">
-        <v>-205</v>
+        <v>1130.616</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>279</v>
+        <v>1180.827</v>
       </c>
       <c r="D27">
-        <v>6894</v>
+        <v>5464.4049999999997</v>
       </c>
       <c r="E27">
-        <v>8636</v>
+        <v>4688.4520000000002</v>
       </c>
       <c r="F27">
-        <v>818</v>
+        <v>1842.0609999999999</v>
       </c>
       <c r="G27">
-        <v>21883</v>
+        <v>9471.6270000000004</v>
       </c>
       <c r="H27">
-        <v>76175</v>
+        <v>23508.784</v>
       </c>
       <c r="I27">
-        <v>9380</v>
+        <v>3647.047</v>
       </c>
       <c r="J27">
-        <v>16575</v>
+        <v>4619.6760000000004</v>
       </c>
       <c r="K27">
-        <v>2049</v>
+        <v>731.77300000000002</v>
       </c>
       <c r="L27">
-        <v>-1015</v>
+        <v>0</v>
       </c>
       <c r="M27">
-        <v>-1</v>
+        <v>-469.24299999999999</v>
       </c>
       <c r="N27">
-        <v>13776</v>
+        <v>5908.1610000000001</v>
       </c>
       <c r="O27">
-        <v>35121</v>
+        <v>12148.73</v>
       </c>
       <c r="P27">
-        <v>19024</v>
+        <v>5579.5829999999996</v>
       </c>
       <c r="Q27">
-        <v>-1027</v>
+        <v>-30.497</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>41054</v>
+        <v>11360.054</v>
       </c>
       <c r="U27">
-        <v>1902</v>
+        <v>135.32</v>
       </c>
       <c r="V27">
-        <v>656</v>
+        <v>1016.7859999999999</v>
       </c>
       <c r="W27">
-        <v>-696</v>
+        <v>-147.32599999999999</v>
       </c>
       <c r="X27">
-        <v>-1637</v>
+        <v>-675.97900000000004</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>883</v>
+        <v>314.67399999999998</v>
       </c>
       <c r="AA27">
-        <v>279</v>
+        <v>1180.827</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>-74</v>
+        <v>1258.479</v>
       </c>
       <c r="D28">
-        <v>7462</v>
+        <v>5638.7619999999997</v>
       </c>
       <c r="E28">
-        <v>8925</v>
+        <v>4896.4489999999996</v>
       </c>
       <c r="F28">
-        <v>994</v>
+        <v>1901.8910000000001</v>
       </c>
       <c r="G28">
-        <v>21273</v>
+        <v>10047.832</v>
       </c>
       <c r="H28">
-        <v>74862</v>
+        <v>24772.761999999999</v>
       </c>
       <c r="I28">
-        <v>9413</v>
+        <v>3873.1089999999999</v>
       </c>
       <c r="J28">
-        <v>16628</v>
+        <v>3916.373</v>
       </c>
       <c r="K28">
-        <v>2024</v>
+        <v>662.553</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,81 +3050,81 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>13527</v>
+        <v>6370.82</v>
       </c>
       <c r="O28">
-        <v>34910</v>
+        <v>11934.108</v>
       </c>
       <c r="P28">
-        <v>18852</v>
+        <v>5291.3530000000001</v>
       </c>
       <c r="Q28">
-        <v>1</v>
+        <v>11.234999999999999</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>39952</v>
+        <v>12838.654</v>
       </c>
       <c r="U28">
-        <v>1903</v>
+        <v>146.55500000000001</v>
       </c>
       <c r="V28">
-        <v>858</v>
+        <v>1469.7550000000001</v>
       </c>
       <c r="W28">
-        <v>-697</v>
+        <v>-206.24700000000001</v>
       </c>
       <c r="X28">
-        <v>-1332</v>
+        <v>-73.650000000000006</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>1362</v>
+        <v>-387.04599999999999</v>
       </c>
       <c r="AA28">
-        <v>-74</v>
+        <v>1258.479</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>544</v>
+        <v>1353.9970000000001</v>
       </c>
       <c r="D29">
-        <v>7905</v>
+        <v>5925.6620000000003</v>
       </c>
       <c r="E29">
-        <v>9436</v>
+        <v>5301.6120000000001</v>
       </c>
       <c r="F29">
-        <v>1108</v>
+        <v>2020.567</v>
       </c>
       <c r="G29">
-        <v>19914</v>
+        <v>10935.728999999999</v>
       </c>
       <c r="H29">
-        <v>73569</v>
+        <v>26306.513999999999</v>
       </c>
       <c r="I29">
-        <v>9676</v>
+        <v>4158.3739999999998</v>
       </c>
       <c r="J29">
-        <v>15915</v>
+        <v>4041.7759999999998</v>
       </c>
       <c r="K29">
-        <v>1289</v>
+        <v>618.89800000000002</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,81 +3133,81 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>13014</v>
+        <v>6657.7089999999998</v>
       </c>
       <c r="O29">
-        <v>33559</v>
+        <v>12288.794</v>
       </c>
       <c r="P29">
-        <v>17204</v>
+        <v>5304.1610000000001</v>
       </c>
       <c r="Q29">
-        <v>-213</v>
+        <v>15.455</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>40010</v>
+        <v>14017.72</v>
       </c>
       <c r="U29">
-        <v>1690</v>
+        <v>162.01</v>
       </c>
       <c r="V29">
-        <v>1898</v>
+        <v>1624.729</v>
       </c>
       <c r="W29">
-        <v>-693</v>
+        <v>-208.512</v>
       </c>
       <c r="X29">
-        <v>-2342</v>
+        <v>-319.43</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>1065</v>
+        <v>-383.97</v>
       </c>
       <c r="AA29">
-        <v>545</v>
+        <v>1353.9970000000001</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>-2254</v>
+        <v>1383.213</v>
       </c>
       <c r="D30">
-        <v>8179</v>
+        <v>6247.7129999999997</v>
       </c>
       <c r="E30">
-        <v>8084</v>
+        <v>5361.1139999999996</v>
       </c>
       <c r="F30">
-        <v>1224</v>
+        <v>2030.277</v>
       </c>
       <c r="G30">
-        <v>18497</v>
+        <v>11055.383</v>
       </c>
       <c r="H30">
-        <v>71987</v>
+        <v>27853.371999999999</v>
       </c>
       <c r="I30">
-        <v>4614</v>
+        <v>3474.7280000000001</v>
       </c>
       <c r="J30">
-        <v>14875</v>
+        <v>3794.4659999999999</v>
       </c>
       <c r="K30">
-        <v>2024</v>
+        <v>679.59400000000005</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,164 +3216,164 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>15282</v>
+        <v>7504.8509999999997</v>
       </c>
       <c r="O30">
-        <v>34726</v>
+        <v>12915.602999999999</v>
       </c>
       <c r="P30">
-        <v>18199</v>
+        <v>5466.1009999999997</v>
       </c>
       <c r="Q30">
-        <v>109</v>
+        <v>35.222999999999999</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>100000</v>
+        <v>80000</v>
       </c>
       <c r="T30">
-        <v>37261</v>
+        <v>14937.769</v>
       </c>
       <c r="U30">
-        <v>1799</v>
+        <v>197.233</v>
       </c>
       <c r="V30">
-        <v>2251</v>
+        <v>2175.5990000000002</v>
       </c>
       <c r="W30">
-        <v>-692</v>
+        <v>-209.26499999999999</v>
       </c>
       <c r="X30">
-        <v>278</v>
+        <v>-561.36900000000003</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>-33</v>
+        <v>367.52699999999999</v>
       </c>
       <c r="AA30">
-        <v>-2254</v>
+        <v>1383.213</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>525</v>
+        <v>1338.3040000000001</v>
       </c>
       <c r="D31">
-        <v>7829</v>
+        <v>6289.8729999999996</v>
       </c>
       <c r="E31">
-        <v>8472</v>
+        <v>5781.4549999999999</v>
       </c>
       <c r="F31">
-        <v>1027</v>
+        <v>1931.578</v>
       </c>
       <c r="G31">
-        <v>18055</v>
+        <v>11645.96</v>
       </c>
       <c r="H31">
-        <v>71478</v>
+        <v>28954.368999999999</v>
       </c>
       <c r="I31">
-        <v>8698</v>
+        <v>4474.4660000000003</v>
       </c>
       <c r="J31">
-        <v>13526</v>
+        <v>4153.4260000000004</v>
       </c>
       <c r="K31">
-        <v>3286</v>
+        <v>682.303</v>
       </c>
       <c r="L31">
-        <v>-105</v>
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>-51</v>
+        <v>-72.320999999999998</v>
       </c>
       <c r="N31">
-        <v>16195</v>
+        <v>7309.2830000000004</v>
       </c>
       <c r="O31">
-        <v>34152</v>
+        <v>13121.266</v>
       </c>
       <c r="P31">
-        <v>18112</v>
+        <v>5732.875</v>
       </c>
       <c r="Q31">
-        <v>66</v>
+        <v>-52.14</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>37326</v>
+        <v>15833.102999999999</v>
       </c>
       <c r="U31">
-        <v>1865</v>
+        <v>145.09299999999999</v>
       </c>
       <c r="V31">
-        <v>568</v>
+        <v>1193.278</v>
       </c>
       <c r="W31">
-        <v>-692</v>
+        <v>-209.20400000000001</v>
       </c>
       <c r="X31">
-        <v>-787</v>
+        <v>-332.89499999999998</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>980</v>
+        <v>-6.3449999999999998</v>
       </c>
       <c r="AA31">
-        <v>525</v>
+        <v>1338.3040000000001</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>430</v>
+        <v>1419.6959999999999</v>
       </c>
       <c r="D32">
-        <v>8303</v>
+        <v>6746</v>
       </c>
       <c r="E32">
-        <v>8606</v>
+        <v>6211.5110000000004</v>
       </c>
       <c r="F32">
-        <v>1124</v>
+        <v>2137</v>
       </c>
       <c r="G32">
-        <v>16900</v>
+        <v>11897.298000000001</v>
       </c>
       <c r="H32">
-        <v>70156</v>
+        <v>29994.938999999998</v>
       </c>
       <c r="I32">
-        <v>8567</v>
+        <v>4768.5540000000001</v>
       </c>
       <c r="J32">
-        <v>13865</v>
+        <v>4118.4790000000003</v>
       </c>
       <c r="K32">
-        <v>3036</v>
+        <v>645.21600000000001</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,81 +3382,81 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>15066</v>
+        <v>7231.4449999999997</v>
       </c>
       <c r="O32">
-        <v>33259</v>
+        <v>12957.27</v>
       </c>
       <c r="P32">
-        <v>17601</v>
+        <v>5366.5780000000004</v>
       </c>
       <c r="Q32">
-        <v>-404</v>
+        <v>41.14</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>36897</v>
+        <v>17037.669000000002</v>
       </c>
       <c r="U32">
-        <v>1461</v>
+        <v>185.72399999999999</v>
       </c>
       <c r="V32">
-        <v>987</v>
+        <v>1599.722</v>
       </c>
       <c r="W32">
-        <v>-693</v>
+        <v>-250.79599999999999</v>
       </c>
       <c r="X32">
-        <v>-1264</v>
+        <v>-615.10500000000002</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>712</v>
+        <v>269.34500000000003</v>
       </c>
       <c r="AA32">
-        <v>430</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>644</v>
+        <v>1527</v>
       </c>
       <c r="D33">
-        <v>8504</v>
+        <v>7259</v>
       </c>
       <c r="E33">
-        <v>8409</v>
+        <v>6701.875</v>
       </c>
       <c r="F33">
-        <v>1180</v>
+        <v>2292</v>
       </c>
       <c r="G33">
-        <v>16483</v>
+        <v>13077.861000000001</v>
       </c>
       <c r="H33">
-        <v>70046</v>
+        <v>31597.675999999999</v>
       </c>
       <c r="I33">
-        <v>8619</v>
+        <v>4997.3109999999997</v>
       </c>
       <c r="J33">
-        <v>14159</v>
+        <v>3527.7579999999998</v>
       </c>
       <c r="K33">
-        <v>2715</v>
+        <v>625.875</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,81 +3465,81 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>14600</v>
+        <v>8626.2369999999992</v>
       </c>
       <c r="O33">
-        <v>33098</v>
+        <v>13726.332</v>
       </c>
       <c r="P33">
-        <v>17374</v>
+        <v>5739.1809999999996</v>
       </c>
       <c r="Q33">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>36948</v>
+        <v>17871.344000000001</v>
       </c>
       <c r="U33">
-        <v>1493</v>
+        <v>187.75299999999999</v>
       </c>
       <c r="V33">
-        <v>1827</v>
+        <v>2164</v>
       </c>
       <c r="W33">
-        <v>-692</v>
+        <v>-252</v>
       </c>
       <c r="X33">
-        <v>-900</v>
+        <v>-268</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>230</v>
+        <v>-680</v>
       </c>
       <c r="AA33">
-        <v>644</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>539</v>
+        <v>1150</v>
       </c>
       <c r="D34">
-        <v>8179</v>
+        <v>6868</v>
       </c>
       <c r="E34">
-        <v>7881</v>
+        <v>6258</v>
       </c>
       <c r="F34">
-        <v>1007</v>
+        <v>1908</v>
       </c>
       <c r="G34">
-        <v>15731</v>
+        <v>12986</v>
       </c>
       <c r="H34">
-        <v>70507</v>
+        <v>32094</v>
       </c>
       <c r="I34">
-        <v>4709</v>
+        <v>4035</v>
       </c>
       <c r="J34">
-        <v>14644</v>
+        <v>3693</v>
       </c>
       <c r="K34">
-        <v>1407</v>
+        <v>459</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,164 +3548,164 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>13486</v>
+        <v>8175</v>
       </c>
       <c r="O34">
-        <v>33921</v>
+        <v>15160</v>
       </c>
       <c r="P34">
-        <v>17851</v>
+        <v>5291</v>
       </c>
       <c r="Q34">
-        <v>-60</v>
+        <v>0</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>100000</v>
+        <v>87000</v>
       </c>
       <c r="T34">
-        <v>36586</v>
+        <v>16934</v>
       </c>
       <c r="U34">
-        <v>1433</v>
+        <v>189</v>
       </c>
       <c r="V34">
-        <v>2331</v>
+        <v>2005</v>
       </c>
       <c r="W34">
-        <v>-693</v>
+        <v>-252</v>
       </c>
       <c r="X34">
-        <v>-2069</v>
+        <v>-609</v>
       </c>
       <c r="Y34">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="Z34">
-        <v>21</v>
+        <v>-181</v>
       </c>
       <c r="AA34">
-        <v>539</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>421</v>
+        <v>938</v>
       </c>
       <c r="D35">
-        <v>7879</v>
+        <v>6000</v>
       </c>
       <c r="E35">
-        <v>8171</v>
+        <v>6653.06</v>
       </c>
       <c r="F35">
-        <v>927</v>
+        <v>1490</v>
       </c>
       <c r="G35">
-        <v>15773</v>
+        <v>13934.454</v>
       </c>
       <c r="H35">
-        <v>70321</v>
+        <v>32997.141000000003</v>
       </c>
       <c r="I35">
-        <v>8702</v>
+        <v>4749.4939999999997</v>
       </c>
       <c r="J35">
-        <v>16449</v>
+        <v>4575.4629999999997</v>
       </c>
       <c r="K35">
-        <v>99</v>
+        <v>601.05600000000004</v>
       </c>
       <c r="L35">
-        <v>-38</v>
+        <v>0</v>
       </c>
       <c r="M35">
-        <v>-1368</v>
+        <v>-521</v>
       </c>
       <c r="N35">
-        <v>11697</v>
+        <v>7702.5370000000003</v>
       </c>
       <c r="O35">
-        <v>33797</v>
+        <v>15312.348</v>
       </c>
       <c r="P35">
-        <v>16548</v>
+        <v>6166.0860000000002</v>
       </c>
       <c r="Q35">
-        <v>-203</v>
+        <v>3</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>36524</v>
+        <v>17684.793000000001</v>
       </c>
       <c r="U35">
-        <v>1230</v>
+        <v>191.69499999999999</v>
       </c>
       <c r="V35">
-        <v>326</v>
+        <v>551</v>
       </c>
       <c r="W35">
-        <v>-692</v>
+        <v>-251</v>
       </c>
       <c r="X35">
-        <v>-297</v>
+        <v>671</v>
       </c>
       <c r="Y35">
         <v>0</v>
       </c>
       <c r="Z35">
-        <v>420</v>
+        <v>-475</v>
       </c>
       <c r="AA35">
-        <v>421</v>
+        <v>938</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>492</v>
+        <v>614</v>
       </c>
       <c r="D36">
-        <v>8269</v>
+        <v>5528</v>
       </c>
       <c r="E36">
-        <v>8471</v>
+        <v>6107</v>
       </c>
       <c r="F36">
-        <v>1017</v>
+        <v>1198</v>
       </c>
       <c r="G36">
-        <v>16333</v>
+        <v>13655</v>
       </c>
       <c r="H36">
-        <v>70591</v>
+        <v>32960</v>
       </c>
       <c r="I36">
-        <v>8851</v>
+        <v>4710</v>
       </c>
       <c r="J36">
-        <v>16978</v>
+        <v>4291</v>
       </c>
       <c r="K36">
-        <v>98</v>
+        <v>422</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3594,81 +3714,81 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>11773</v>
+        <v>7461</v>
       </c>
       <c r="O36">
-        <v>34318</v>
+        <v>14226</v>
       </c>
       <c r="P36">
-        <v>17076</v>
+        <v>5865</v>
       </c>
       <c r="Q36">
-        <v>236</v>
+        <v>24</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>36273</v>
+        <v>18734</v>
       </c>
       <c r="U36">
-        <v>1466</v>
+        <v>216</v>
       </c>
       <c r="V36">
-        <v>1108</v>
+        <v>1513</v>
       </c>
       <c r="W36">
-        <v>-693</v>
+        <v>-251</v>
       </c>
       <c r="X36">
-        <v>-234</v>
+        <v>-593</v>
       </c>
       <c r="Y36">
         <v>0</v>
       </c>
       <c r="Z36">
-        <v>44</v>
+        <v>-205</v>
       </c>
       <c r="AA36">
-        <v>492</v>
+        <v>613</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>-11383</v>
+        <v>786</v>
       </c>
       <c r="D37">
-        <v>8541</v>
+        <v>5430</v>
       </c>
       <c r="E37">
-        <v>8332</v>
+        <v>6087</v>
       </c>
       <c r="F37">
-        <v>1067</v>
+        <v>1286</v>
       </c>
       <c r="G37">
-        <v>16151</v>
+        <v>13382</v>
       </c>
       <c r="H37">
-        <v>57990</v>
+        <v>33075</v>
       </c>
       <c r="I37">
-        <v>9464</v>
+        <v>4709</v>
       </c>
       <c r="J37">
-        <v>16333</v>
+        <v>4312</v>
       </c>
       <c r="K37">
-        <v>40</v>
+        <v>283</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3677,81 +3797,81 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>12483</v>
+        <v>7115</v>
       </c>
       <c r="O37">
-        <v>33663</v>
+        <v>13612</v>
       </c>
       <c r="P37">
-        <v>16673</v>
+        <v>5512</v>
       </c>
       <c r="Q37">
-        <v>-283</v>
+        <v>-115</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>24327</v>
+        <v>19463</v>
       </c>
       <c r="U37">
-        <v>1183</v>
+        <v>194</v>
       </c>
       <c r="V37">
-        <v>1745</v>
+        <v>1280</v>
       </c>
       <c r="W37">
-        <v>-692</v>
+        <v>-256</v>
       </c>
       <c r="X37">
-        <v>-1090</v>
+        <v>-533</v>
       </c>
       <c r="Y37">
         <v>0</v>
       </c>
       <c r="Z37">
-        <v>-226</v>
+        <v>-87</v>
       </c>
       <c r="AA37">
-        <v>-11383</v>
+        <v>787</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>333</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>8228</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>7747</v>
+        <v>6088</v>
       </c>
       <c r="F38">
-        <v>1191</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>15530</v>
+        <v>13650</v>
       </c>
       <c r="H38">
-        <v>56312</v>
+        <v>33465</v>
       </c>
       <c r="I38">
-        <v>4790</v>
+        <v>3938</v>
       </c>
       <c r="J38">
-        <v>14770</v>
+        <v>4355</v>
       </c>
       <c r="K38">
-        <v>524</v>
+        <v>360</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3760,164 +3880,164 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>13098</v>
+        <v>7259</v>
       </c>
       <c r="O38">
-        <v>32136</v>
+        <v>14236</v>
       </c>
       <c r="P38">
-        <v>16294</v>
+        <v>5480</v>
       </c>
       <c r="Q38">
-        <v>-46</v>
+        <v>0</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>105000</v>
+        <v>77000</v>
       </c>
       <c r="T38">
-        <v>24176</v>
+        <v>19229</v>
       </c>
       <c r="U38">
-        <v>1137</v>
+        <v>617</v>
       </c>
       <c r="V38">
-        <v>2252</v>
+        <v>0</v>
       </c>
       <c r="W38">
-        <v>-692</v>
+        <v>0</v>
       </c>
       <c r="X38">
-        <v>-2097</v>
+        <v>0</v>
       </c>
       <c r="Y38">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>317</v>
+        <v>0</v>
       </c>
       <c r="AA38">
-        <v>333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>-7376</v>
+        <v>672</v>
       </c>
       <c r="D39">
-        <v>7455</v>
+        <v>5598</v>
       </c>
       <c r="E39">
-        <v>7486</v>
+        <v>5972</v>
       </c>
       <c r="F39">
-        <v>831</v>
+        <v>1183</v>
       </c>
       <c r="G39">
-        <v>16266</v>
+        <v>13065</v>
       </c>
       <c r="H39">
-        <v>48594</v>
+        <v>32883</v>
       </c>
       <c r="I39">
-        <v>9068</v>
+        <v>4672</v>
       </c>
       <c r="J39">
-        <v>15409</v>
+        <v>4052</v>
       </c>
       <c r="K39">
-        <v>1233</v>
+        <v>179</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>-182</v>
       </c>
       <c r="M39">
-        <v>-90</v>
+        <v>-109</v>
       </c>
       <c r="N39">
-        <v>13262</v>
+        <v>6754</v>
       </c>
       <c r="O39">
-        <v>32611</v>
+        <v>13344</v>
       </c>
       <c r="P39">
-        <v>16642</v>
+        <v>4986</v>
       </c>
       <c r="Q39">
-        <v>238</v>
+        <v>23</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>15983</v>
+        <v>19539</v>
       </c>
       <c r="U39">
-        <v>1375</v>
+        <v>271</v>
       </c>
       <c r="V39">
-        <v>784</v>
+        <v>989</v>
       </c>
       <c r="W39">
-        <v>-692</v>
+        <v>-254</v>
       </c>
       <c r="X39">
-        <v>777</v>
+        <v>-767</v>
       </c>
       <c r="Y39">
         <v>0</v>
       </c>
       <c r="Z39">
-        <v>-941</v>
+        <v>463</v>
       </c>
       <c r="AA39">
-        <v>-7376</v>
+        <v>672</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>-3434</v>
+        <v>818</v>
       </c>
       <c r="D40">
-        <v>5356</v>
+        <v>5937</v>
       </c>
       <c r="E40">
-        <v>5808</v>
+        <v>6234</v>
       </c>
       <c r="F40">
-        <v>431</v>
+        <v>1285</v>
       </c>
       <c r="G40">
-        <v>14379</v>
+        <v>12230</v>
       </c>
       <c r="H40">
-        <v>44667</v>
+        <v>33017</v>
       </c>
       <c r="I40">
-        <v>8724</v>
+        <v>4815</v>
       </c>
       <c r="J40">
-        <v>16763</v>
+        <v>3729</v>
       </c>
       <c r="K40">
-        <v>603</v>
+        <v>327</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3926,81 +4046,81 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>11665</v>
+        <v>6776</v>
       </c>
       <c r="O40">
-        <v>32211</v>
+        <v>13133</v>
       </c>
       <c r="P40">
-        <v>17366</v>
+        <v>4496</v>
       </c>
       <c r="Q40">
-        <v>87</v>
+        <v>-37</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>12456</v>
+        <v>19884</v>
       </c>
       <c r="U40">
-        <v>1462</v>
+        <v>229</v>
       </c>
       <c r="V40">
-        <v>803</v>
+        <v>1297</v>
       </c>
       <c r="W40">
-        <v>-694</v>
+        <v>-251</v>
       </c>
       <c r="X40">
-        <v>-167</v>
+        <v>-834</v>
       </c>
       <c r="Y40">
         <v>0</v>
       </c>
       <c r="Z40">
-        <v>-158</v>
+        <v>1140</v>
       </c>
       <c r="AA40">
-        <v>-3434</v>
+        <v>818</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>-82</v>
+        <v>1734</v>
       </c>
       <c r="D41">
-        <v>5258</v>
+        <v>6845</v>
       </c>
       <c r="E41">
-        <v>5552</v>
+        <v>8600</v>
       </c>
       <c r="F41">
-        <v>634</v>
+        <v>1412</v>
       </c>
       <c r="G41">
-        <v>14215</v>
+        <v>16446</v>
       </c>
       <c r="H41">
-        <v>44066</v>
+        <v>49854</v>
       </c>
       <c r="I41">
-        <v>8201</v>
+        <v>6287</v>
       </c>
       <c r="J41">
-        <v>16471</v>
+        <v>4820</v>
       </c>
       <c r="K41">
-        <v>1292</v>
+        <v>446</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>11651</v>
+        <v>10061</v>
       </c>
       <c r="O41">
-        <v>31697</v>
+        <v>18738</v>
       </c>
       <c r="P41">
-        <v>17763</v>
+        <v>6736</v>
       </c>
       <c r="Q41">
-        <v>-243</v>
+        <v>511</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>12369</v>
+        <v>31116</v>
       </c>
       <c r="U41">
-        <v>1219</v>
+        <v>1114</v>
       </c>
       <c r="V41">
-        <v>479</v>
+        <v>810</v>
       </c>
       <c r="W41">
-        <v>-174</v>
+        <v>-251</v>
       </c>
       <c r="X41">
-        <v>21</v>
+        <v>-741</v>
       </c>
       <c r="Y41">
         <v>0</v>
       </c>
       <c r="Z41">
-        <v>-498</v>
+        <v>1017</v>
       </c>
       <c r="AA41">
-        <v>-82</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>1043</v>
+      </c>
+      <c r="D42">
+        <v>9068</v>
+      </c>
+      <c r="E42">
+        <v>8278</v>
+      </c>
+      <c r="F42">
+        <v>1879</v>
+      </c>
+      <c r="G42">
+        <v>18098</v>
+      </c>
+      <c r="H42">
+        <v>51767</v>
+      </c>
+      <c r="I42">
+        <v>2649</v>
+      </c>
+      <c r="J42">
+        <v>5517</v>
+      </c>
+      <c r="K42">
+        <v>381</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>10865</v>
+      </c>
+      <c r="O42">
+        <v>20323</v>
+      </c>
+      <c r="P42">
+        <v>8119</v>
+      </c>
+      <c r="Q42">
+        <v>650</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>108000</v>
+      </c>
+      <c r="T42">
+        <v>31444</v>
+      </c>
+      <c r="U42">
+        <v>1764</v>
+      </c>
+      <c r="V42">
+        <v>2398</v>
+      </c>
+      <c r="W42">
+        <v>-284</v>
+      </c>
+      <c r="X42">
+        <v>933</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>-1597</v>
+      </c>
+      <c r="AA42">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>944</v>
+      </c>
+      <c r="D43">
+        <v>8122</v>
+      </c>
+      <c r="E43">
+        <v>8891</v>
+      </c>
+      <c r="F43">
+        <v>1638</v>
+      </c>
+      <c r="G43">
+        <v>18211</v>
+      </c>
+      <c r="H43">
+        <v>52372</v>
+      </c>
+      <c r="I43">
+        <v>6307</v>
+      </c>
+      <c r="J43">
+        <v>6422</v>
+      </c>
+      <c r="K43">
+        <v>450</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-2146</v>
+      </c>
+      <c r="N43">
+        <v>10399</v>
+      </c>
+      <c r="O43">
+        <v>20746</v>
+      </c>
+      <c r="P43">
+        <v>8611</v>
+      </c>
+      <c r="Q43">
+        <v>-289</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>31626</v>
+      </c>
+      <c r="U43">
+        <v>1475</v>
+      </c>
+      <c r="V43">
+        <v>836</v>
+      </c>
+      <c r="W43">
+        <v>-291</v>
+      </c>
+      <c r="X43">
+        <v>-747</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>565</v>
+      </c>
+      <c r="AA43">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>8990</v>
+      </c>
+      <c r="E44">
+        <v>9356</v>
+      </c>
+      <c r="F44">
+        <v>1967</v>
+      </c>
+      <c r="G44">
+        <v>19942</v>
+      </c>
+      <c r="H44">
+        <v>54019</v>
+      </c>
+      <c r="I44">
+        <v>6986</v>
+      </c>
+      <c r="J44">
+        <v>5745</v>
+      </c>
+      <c r="K44">
+        <v>1244</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>12376</v>
+      </c>
+      <c r="O44">
+        <v>21957</v>
+      </c>
+      <c r="P44">
+        <v>9562</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>32062</v>
+      </c>
+      <c r="U44">
+        <v>1378</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>1301</v>
+      </c>
+      <c r="D45">
+        <v>9546</v>
+      </c>
+      <c r="E45">
+        <v>9493</v>
+      </c>
+      <c r="F45">
+        <v>2102</v>
+      </c>
+      <c r="G45">
+        <v>21260</v>
+      </c>
+      <c r="H45">
+        <v>55581</v>
+      </c>
+      <c r="I45">
+        <v>6978</v>
+      </c>
+      <c r="J45">
+        <v>8740</v>
+      </c>
+      <c r="K45">
+        <v>348</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>11307</v>
+      </c>
+      <c r="O45">
+        <v>23958</v>
+      </c>
+      <c r="P45">
+        <v>11483</v>
+      </c>
+      <c r="Q45">
+        <v>354</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>31623</v>
+      </c>
+      <c r="U45">
+        <v>1732</v>
+      </c>
+      <c r="V45">
+        <v>1658</v>
+      </c>
+      <c r="W45">
+        <v>-337</v>
+      </c>
+      <c r="X45">
+        <v>576</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>-743</v>
+      </c>
+      <c r="AA45">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>1413</v>
+      </c>
+      <c r="D46">
+        <v>10301</v>
+      </c>
+      <c r="E46">
+        <v>9500</v>
+      </c>
+      <c r="F46">
+        <v>2373</v>
+      </c>
+      <c r="G46">
+        <v>20539</v>
+      </c>
+      <c r="H46">
+        <v>55201</v>
+      </c>
+      <c r="I46">
+        <v>3389</v>
+      </c>
+      <c r="J46">
+        <v>8556</v>
+      </c>
+      <c r="K46">
+        <v>336</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>10538</v>
+      </c>
+      <c r="O46">
+        <v>23809</v>
+      </c>
+      <c r="P46">
+        <v>9933</v>
+      </c>
+      <c r="Q46">
+        <v>-27</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>113000</v>
+      </c>
+      <c r="T46">
+        <v>31392</v>
+      </c>
+      <c r="U46">
+        <v>1705</v>
+      </c>
+      <c r="V46">
+        <v>2426</v>
+      </c>
+      <c r="W46">
+        <v>-332</v>
+      </c>
+      <c r="X46">
+        <v>-2293</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>1217</v>
+      </c>
+      <c r="AA46">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>1301</v>
+      </c>
+      <c r="D47">
+        <v>9809</v>
+      </c>
+      <c r="E47">
+        <v>10401</v>
+      </c>
+      <c r="F47">
+        <v>2044</v>
+      </c>
+      <c r="G47">
+        <v>21292</v>
+      </c>
+      <c r="H47">
+        <v>56366</v>
+      </c>
+      <c r="I47">
+        <v>7276</v>
+      </c>
+      <c r="J47">
+        <v>8439</v>
+      </c>
+      <c r="K47">
+        <v>432</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>-40</v>
+      </c>
+      <c r="N47">
+        <v>10802</v>
+      </c>
+      <c r="O47">
+        <v>23878</v>
+      </c>
+      <c r="P47">
+        <v>10167</v>
+      </c>
+      <c r="Q47">
+        <v>-359</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>32488</v>
+      </c>
+      <c r="U47">
+        <v>1346</v>
+      </c>
+      <c r="V47">
+        <v>733</v>
+      </c>
+      <c r="W47">
+        <v>-334</v>
+      </c>
+      <c r="X47">
+        <v>-356</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>362</v>
+      </c>
+      <c r="AA47">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>1402</v>
+      </c>
+      <c r="D48">
+        <v>10341</v>
+      </c>
+      <c r="E48">
+        <v>10802</v>
+      </c>
+      <c r="F48">
+        <v>2222</v>
+      </c>
+      <c r="G48">
+        <v>21040</v>
+      </c>
+      <c r="H48">
+        <v>57013</v>
+      </c>
+      <c r="I48">
+        <v>7381</v>
+      </c>
+      <c r="J48">
+        <v>7953</v>
+      </c>
+      <c r="K48">
+        <v>498</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>11526</v>
+      </c>
+      <c r="O48">
+        <v>24046</v>
+      </c>
+      <c r="P48">
+        <v>10474</v>
+      </c>
+      <c r="Q48">
+        <v>175</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>32967</v>
+      </c>
+      <c r="U48">
+        <v>1521</v>
+      </c>
+      <c r="V48">
+        <v>683</v>
+      </c>
+      <c r="W48">
+        <v>-367</v>
+      </c>
+      <c r="X48">
+        <v>-219</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>784</v>
+      </c>
+      <c r="AA48">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>1424</v>
+      </c>
+      <c r="D49">
+        <v>10498</v>
+      </c>
+      <c r="E49">
+        <v>11450</v>
+      </c>
+      <c r="F49">
+        <v>2261</v>
+      </c>
+      <c r="G49">
+        <v>22951</v>
+      </c>
+      <c r="H49">
+        <v>59441</v>
+      </c>
+      <c r="I49">
+        <v>7809</v>
+      </c>
+      <c r="J49">
+        <v>9397</v>
+      </c>
+      <c r="K49">
+        <v>560</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>11532</v>
+      </c>
+      <c r="O49">
+        <v>25130</v>
+      </c>
+      <c r="P49">
+        <v>11189</v>
+      </c>
+      <c r="Q49">
+        <v>331</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>34311</v>
+      </c>
+      <c r="U49">
+        <v>1852</v>
+      </c>
+      <c r="V49">
+        <v>2096</v>
+      </c>
+      <c r="W49">
+        <v>-366</v>
+      </c>
+      <c r="X49">
+        <v>230</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>-925</v>
+      </c>
+      <c r="AA49">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>1363</v>
+      </c>
+      <c r="D50">
+        <v>11083</v>
+      </c>
+      <c r="E50">
+        <v>11351</v>
+      </c>
+      <c r="F50">
+        <v>2322</v>
+      </c>
+      <c r="G50">
+        <v>24156</v>
+      </c>
+      <c r="H50">
+        <v>61547</v>
+      </c>
+      <c r="I50">
+        <v>3550</v>
+      </c>
+      <c r="J50">
+        <v>9509</v>
+      </c>
+      <c r="K50">
+        <v>958</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>12368</v>
+      </c>
+      <c r="O50">
+        <v>26689</v>
+      </c>
+      <c r="P50">
+        <v>11630</v>
+      </c>
+      <c r="Q50">
+        <v>53</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>118000</v>
+      </c>
+      <c r="T50">
+        <v>34858</v>
+      </c>
+      <c r="U50">
+        <v>1905</v>
+      </c>
+      <c r="V50">
+        <v>3176</v>
+      </c>
+      <c r="W50">
+        <v>-365</v>
+      </c>
+      <c r="X50">
+        <v>6</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>-1449</v>
+      </c>
+      <c r="AA50">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>1259</v>
+      </c>
+      <c r="D51">
+        <v>10570</v>
+      </c>
+      <c r="E51">
+        <v>11502</v>
+      </c>
+      <c r="F51">
+        <v>2161</v>
+      </c>
+      <c r="G51">
+        <v>23727</v>
+      </c>
+      <c r="H51">
+        <v>61428</v>
+      </c>
+      <c r="I51">
+        <v>7690</v>
+      </c>
+      <c r="J51">
+        <v>8138</v>
+      </c>
+      <c r="K51">
+        <v>966</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>-445</v>
+      </c>
+      <c r="N51">
+        <v>12771</v>
+      </c>
+      <c r="O51">
+        <v>25647</v>
+      </c>
+      <c r="P51">
+        <v>11100</v>
+      </c>
+      <c r="Q51">
+        <v>224</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>35781</v>
+      </c>
+      <c r="U51">
+        <v>2129</v>
+      </c>
+      <c r="V51">
+        <v>1119</v>
+      </c>
+      <c r="W51">
+        <v>-365</v>
+      </c>
+      <c r="X51">
+        <v>-785</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>910</v>
+      </c>
+      <c r="AA51">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>2095</v>
+      </c>
+      <c r="D52">
+        <v>11182</v>
+      </c>
+      <c r="E52">
+        <v>11277</v>
+      </c>
+      <c r="F52">
+        <v>2470</v>
+      </c>
+      <c r="G52">
+        <v>23799</v>
+      </c>
+      <c r="H52">
+        <v>63251</v>
+      </c>
+      <c r="I52">
+        <v>7687</v>
+      </c>
+      <c r="J52">
+        <v>9098</v>
+      </c>
+      <c r="K52">
+        <v>775</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>12454</v>
+      </c>
+      <c r="O52">
+        <v>26203</v>
+      </c>
+      <c r="P52">
+        <v>11956</v>
+      </c>
+      <c r="Q52">
+        <v>457</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>37048</v>
+      </c>
+      <c r="U52">
+        <v>2586</v>
+      </c>
+      <c r="V52">
+        <v>2643</v>
+      </c>
+      <c r="W52">
+        <v>-416</v>
+      </c>
+      <c r="X52">
+        <v>-91</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>-660</v>
+      </c>
+      <c r="AA52">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>1714</v>
+      </c>
+      <c r="D53">
+        <v>11608</v>
+      </c>
+      <c r="E53">
+        <v>12057</v>
+      </c>
+      <c r="F53">
+        <v>2682</v>
+      </c>
+      <c r="G53">
+        <v>25093</v>
+      </c>
+      <c r="H53">
+        <v>65123</v>
+      </c>
+      <c r="I53">
+        <v>8348</v>
+      </c>
+      <c r="J53">
+        <v>9916</v>
+      </c>
+      <c r="K53">
+        <v>622</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>12753</v>
+      </c>
+      <c r="O53">
+        <v>27092</v>
+      </c>
+      <c r="P53">
+        <v>12414</v>
+      </c>
+      <c r="Q53">
+        <v>563</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>38031</v>
+      </c>
+      <c r="U53">
+        <v>3149</v>
+      </c>
+      <c r="V53">
+        <v>2807</v>
+      </c>
+      <c r="W53">
+        <v>-415</v>
+      </c>
+      <c r="X53">
+        <v>-678</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>713</v>
+      </c>
+      <c r="AA53">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>1664</v>
+      </c>
+      <c r="D54">
+        <v>11906</v>
+      </c>
+      <c r="E54">
+        <v>11497</v>
+      </c>
+      <c r="F54">
+        <v>2622</v>
+      </c>
+      <c r="G54">
+        <v>26225</v>
+      </c>
+      <c r="H54">
+        <v>67100</v>
+      </c>
+      <c r="I54">
+        <v>4155</v>
+      </c>
+      <c r="J54">
+        <v>10393</v>
+      </c>
+      <c r="K54">
+        <v>964</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>13525</v>
+      </c>
+      <c r="O54">
+        <v>27465</v>
+      </c>
+      <c r="P54">
+        <v>13176</v>
+      </c>
+      <c r="Q54">
+        <v>323</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>123000</v>
+      </c>
+      <c r="T54">
+        <v>39635</v>
+      </c>
+      <c r="U54">
+        <v>3472</v>
+      </c>
+      <c r="V54">
+        <v>4119</v>
+      </c>
+      <c r="W54">
+        <v>-412</v>
+      </c>
+      <c r="X54">
+        <v>-645</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>-2211</v>
+      </c>
+      <c r="AA54">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>1592</v>
+      </c>
+      <c r="D55">
+        <v>11239</v>
+      </c>
+      <c r="E55">
+        <v>11680</v>
+      </c>
+      <c r="F55">
+        <v>2494</v>
+      </c>
+      <c r="G55">
+        <v>25353</v>
+      </c>
+      <c r="H55">
+        <v>66717</v>
+      </c>
+      <c r="I55">
+        <v>8254</v>
+      </c>
+      <c r="J55">
+        <v>11120</v>
+      </c>
+      <c r="K55">
+        <v>741</v>
+      </c>
+      <c r="L55">
+        <v>-222</v>
+      </c>
+      <c r="M55">
+        <v>-1574</v>
+      </c>
+      <c r="N55">
+        <v>11899</v>
+      </c>
+      <c r="O55">
+        <v>26537</v>
+      </c>
+      <c r="P55">
+        <v>12489</v>
+      </c>
+      <c r="Q55">
+        <v>280</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>40180</v>
+      </c>
+      <c r="U55">
+        <v>3752</v>
+      </c>
+      <c r="V55">
+        <v>1837</v>
+      </c>
+      <c r="W55">
+        <v>-410</v>
+      </c>
+      <c r="X55">
+        <v>-1708</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>1576</v>
+      </c>
+      <c r="AA55">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>1595</v>
+      </c>
+      <c r="D56">
+        <v>12054</v>
+      </c>
+      <c r="E56">
+        <v>12251</v>
+      </c>
+      <c r="F56">
+        <v>2785</v>
+      </c>
+      <c r="G56">
+        <v>25414</v>
+      </c>
+      <c r="H56">
+        <v>68086</v>
+      </c>
+      <c r="I56">
+        <v>8676</v>
+      </c>
+      <c r="J56">
+        <v>11740</v>
+      </c>
+      <c r="K56">
+        <v>668</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>12251</v>
+      </c>
+      <c r="O56">
+        <v>27384</v>
+      </c>
+      <c r="P56">
+        <v>13245</v>
+      </c>
+      <c r="Q56">
+        <v>-1485</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>40702</v>
+      </c>
+      <c r="U56">
+        <v>2267</v>
+      </c>
+      <c r="V56">
+        <v>2382</v>
+      </c>
+      <c r="W56">
+        <v>-522</v>
+      </c>
+      <c r="X56">
+        <v>-1265</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>-1227</v>
+      </c>
+      <c r="AA56">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>12646</v>
+      </c>
+      <c r="E57">
+        <v>12352</v>
+      </c>
+      <c r="F57">
+        <v>2957</v>
+      </c>
+      <c r="G57">
+        <v>25473</v>
+      </c>
+      <c r="H57">
+        <v>68320</v>
+      </c>
+      <c r="I57">
+        <v>8864</v>
+      </c>
+      <c r="J57">
+        <v>11641</v>
+      </c>
+      <c r="K57">
+        <v>1424</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>12388</v>
+      </c>
+      <c r="O57">
+        <v>27633</v>
+      </c>
+      <c r="P57">
+        <v>13092</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>40687</v>
+      </c>
+      <c r="U57">
+        <v>3118</v>
+      </c>
+      <c r="V57">
+        <v>0</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>0</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>302</v>
+      </c>
+      <c r="D58">
+        <v>12641</v>
+      </c>
+      <c r="E58">
+        <v>11171</v>
+      </c>
+      <c r="F58">
+        <v>2951</v>
+      </c>
+      <c r="G58">
+        <v>24694</v>
+      </c>
+      <c r="H58">
+        <v>66904</v>
+      </c>
+      <c r="I58">
+        <v>4344</v>
+      </c>
+      <c r="J58">
+        <v>10607</v>
+      </c>
+      <c r="K58">
+        <v>1521</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>14176</v>
+      </c>
+      <c r="O58">
+        <v>28855</v>
+      </c>
+      <c r="P58">
+        <v>13372</v>
+      </c>
+      <c r="Q58">
+        <v>12</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>120000</v>
+      </c>
+      <c r="T58">
+        <v>38049</v>
+      </c>
+      <c r="U58">
+        <v>3130</v>
+      </c>
+      <c r="V58">
+        <v>3913</v>
+      </c>
+      <c r="W58">
+        <v>-517</v>
+      </c>
+      <c r="X58">
+        <v>-1223</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>-701</v>
+      </c>
+      <c r="AA58">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>975</v>
+      </c>
+      <c r="D59">
+        <v>10248</v>
+      </c>
+      <c r="E59">
+        <v>10443</v>
+      </c>
+      <c r="F59">
+        <v>2152</v>
+      </c>
+      <c r="G59">
+        <v>23394</v>
+      </c>
+      <c r="H59">
+        <v>65411</v>
+      </c>
+      <c r="I59">
+        <v>8311</v>
+      </c>
+      <c r="J59">
+        <v>8958</v>
+      </c>
+      <c r="K59">
+        <v>648</v>
+      </c>
+      <c r="L59">
+        <v>-902</v>
+      </c>
+      <c r="M59">
+        <v>-1144</v>
+      </c>
+      <c r="N59">
+        <v>14572</v>
+      </c>
+      <c r="O59">
+        <v>27545</v>
+      </c>
+      <c r="P59">
+        <v>12786</v>
+      </c>
+      <c r="Q59">
+        <v>-1009</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>37866</v>
+      </c>
+      <c r="U59">
+        <v>2121</v>
+      </c>
+      <c r="V59">
+        <v>1770</v>
+      </c>
+      <c r="W59">
+        <v>-512</v>
+      </c>
+      <c r="X59">
+        <v>-1525</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>-307</v>
+      </c>
+      <c r="AA59">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>9010</v>
+      </c>
+      <c r="E60">
+        <v>9569</v>
+      </c>
+      <c r="F60">
+        <v>1874</v>
+      </c>
+      <c r="G60">
+        <v>22861</v>
+      </c>
+      <c r="H60">
+        <v>64753</v>
+      </c>
+      <c r="I60">
+        <v>7417</v>
+      </c>
+      <c r="J60">
+        <v>9130</v>
+      </c>
+      <c r="K60">
+        <v>2139</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>13774</v>
+      </c>
+      <c r="O60">
+        <v>26568</v>
+      </c>
+      <c r="P60">
+        <v>13361</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>38185</v>
+      </c>
+      <c r="U60">
+        <v>3541</v>
+      </c>
+      <c r="V60">
+        <v>0</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>0</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>989</v>
+      </c>
+      <c r="D61">
+        <v>8472</v>
+      </c>
+      <c r="E61">
+        <v>9372</v>
+      </c>
+      <c r="F61">
+        <v>1674</v>
+      </c>
+      <c r="G61">
+        <v>21532</v>
+      </c>
+      <c r="H61">
+        <v>63342</v>
+      </c>
+      <c r="I61">
+        <v>7120</v>
+      </c>
+      <c r="J61">
+        <v>7511</v>
+      </c>
+      <c r="K61">
+        <v>1511</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>14010</v>
+      </c>
+      <c r="O61">
+        <v>25163</v>
+      </c>
+      <c r="P61">
+        <v>12272</v>
+      </c>
+      <c r="Q61">
+        <v>-369</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>38179</v>
+      </c>
+      <c r="U61">
+        <v>3172</v>
+      </c>
+      <c r="V61">
+        <v>2543</v>
+      </c>
+      <c r="W61">
+        <v>-635</v>
+      </c>
+      <c r="X61">
+        <v>-2192</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>329</v>
+      </c>
+      <c r="AA61">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>-1016</v>
+      </c>
+      <c r="D62">
+        <v>7744</v>
+      </c>
+      <c r="E62">
+        <v>8780</v>
+      </c>
+      <c r="F62">
+        <v>1451</v>
+      </c>
+      <c r="G62">
+        <v>26912</v>
+      </c>
+      <c r="H62">
+        <v>68005</v>
+      </c>
+      <c r="I62">
+        <v>3243</v>
+      </c>
+      <c r="J62">
+        <v>14464</v>
+      </c>
+      <c r="K62">
+        <v>1546</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>14121</v>
+      </c>
+      <c r="O62">
+        <v>32100</v>
+      </c>
+      <c r="P62">
+        <v>19021</v>
+      </c>
+      <c r="Q62">
+        <v>-379</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>95000</v>
+      </c>
+      <c r="T62">
+        <v>35905</v>
+      </c>
+      <c r="U62">
+        <v>2793</v>
+      </c>
+      <c r="V62">
+        <v>2178</v>
+      </c>
+      <c r="W62">
+        <v>-633</v>
+      </c>
+      <c r="X62">
+        <v>5677</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>-6787</v>
+      </c>
+      <c r="AA62">
+        <v>-1016</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>501</v>
+      </c>
+      <c r="D63">
+        <v>6520</v>
+      </c>
+      <c r="E63">
+        <v>8382</v>
+      </c>
+      <c r="F63">
+        <v>1060</v>
+      </c>
+      <c r="G63">
+        <v>27700</v>
+      </c>
+      <c r="H63">
+        <v>69141</v>
+      </c>
+      <c r="I63">
+        <v>6692</v>
+      </c>
+      <c r="J63">
+        <v>17260</v>
+      </c>
+      <c r="K63">
+        <v>987</v>
+      </c>
+      <c r="L63">
+        <v>-561</v>
+      </c>
+      <c r="M63">
+        <v>-500</v>
+      </c>
+      <c r="N63">
+        <v>12880</v>
+      </c>
+      <c r="O63">
+        <v>33479</v>
+      </c>
+      <c r="P63">
+        <v>21514</v>
+      </c>
+      <c r="Q63">
+        <v>-713</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>35662</v>
+      </c>
+      <c r="U63">
+        <v>2080</v>
+      </c>
+      <c r="V63">
+        <v>1210</v>
+      </c>
+      <c r="W63">
+        <v>-629</v>
+      </c>
+      <c r="X63">
+        <v>1587</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>-2093</v>
+      </c>
+      <c r="AA63">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>-2160</v>
+      </c>
+      <c r="D64">
+        <v>7164</v>
+      </c>
+      <c r="E64">
+        <v>9374</v>
+      </c>
+      <c r="F64">
+        <v>849</v>
+      </c>
+      <c r="G64">
+        <v>27195</v>
+      </c>
+      <c r="H64">
+        <v>81171</v>
+      </c>
+      <c r="I64">
+        <v>9355</v>
+      </c>
+      <c r="J64">
+        <v>18287</v>
+      </c>
+      <c r="K64">
+        <v>986</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>14609</v>
+      </c>
+      <c r="O64">
+        <v>38192</v>
+      </c>
+      <c r="P64">
+        <v>21658</v>
+      </c>
+      <c r="Q64">
+        <v>867</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>42979</v>
+      </c>
+      <c r="U64">
+        <v>2947</v>
+      </c>
+      <c r="V64">
+        <v>1632</v>
+      </c>
+      <c r="W64">
+        <v>-626</v>
+      </c>
+      <c r="X64">
+        <v>-3510</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>5569</v>
+      </c>
+      <c r="AA64">
+        <v>-2160</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>177</v>
+      </c>
+      <c r="D65">
+        <v>7019</v>
+      </c>
+      <c r="E65">
+        <v>9565</v>
+      </c>
+      <c r="F65">
+        <v>877</v>
+      </c>
+      <c r="G65">
+        <v>26425</v>
+      </c>
+      <c r="H65">
+        <v>80594</v>
+      </c>
+      <c r="I65">
+        <v>9378</v>
+      </c>
+      <c r="J65">
+        <v>17570</v>
+      </c>
+      <c r="K65">
+        <v>1951</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>14972</v>
+      </c>
+      <c r="O65">
+        <v>38020</v>
+      </c>
+      <c r="P65">
+        <v>21309</v>
+      </c>
+      <c r="Q65">
+        <v>494</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>42574</v>
+      </c>
+      <c r="U65">
+        <v>3441</v>
+      </c>
+      <c r="V65">
+        <v>1406</v>
+      </c>
+      <c r="W65">
+        <v>-696</v>
+      </c>
+      <c r="X65">
+        <v>-1116</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>963</v>
+      </c>
+      <c r="AA65">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>-205</v>
+      </c>
+      <c r="D66">
+        <v>7107</v>
+      </c>
+      <c r="E66">
+        <v>9387</v>
+      </c>
+      <c r="F66">
+        <v>914</v>
+      </c>
+      <c r="G66">
+        <v>23927</v>
+      </c>
+      <c r="H66">
+        <v>77956</v>
+      </c>
+      <c r="I66">
+        <v>4004</v>
+      </c>
+      <c r="J66">
+        <v>16463</v>
+      </c>
+      <c r="K66">
+        <v>2953</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>15059</v>
+      </c>
+      <c r="O66">
+        <v>36427</v>
+      </c>
+      <c r="P66">
+        <v>19616</v>
+      </c>
+      <c r="Q66">
+        <v>-512</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>100000</v>
+      </c>
+      <c r="T66">
+        <v>41529</v>
+      </c>
+      <c r="U66">
+        <v>2929</v>
+      </c>
+      <c r="V66">
+        <v>2013</v>
+      </c>
+      <c r="W66">
+        <v>-696</v>
+      </c>
+      <c r="X66">
+        <v>-2389</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>1105</v>
+      </c>
+      <c r="AA66">
+        <v>-205</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>279</v>
+      </c>
+      <c r="D67">
+        <v>6894</v>
+      </c>
+      <c r="E67">
+        <v>8636</v>
+      </c>
+      <c r="F67">
+        <v>818</v>
+      </c>
+      <c r="G67">
+        <v>21883</v>
+      </c>
+      <c r="H67">
+        <v>76175</v>
+      </c>
+      <c r="I67">
+        <v>9380</v>
+      </c>
+      <c r="J67">
+        <v>16575</v>
+      </c>
+      <c r="K67">
+        <v>2049</v>
+      </c>
+      <c r="L67">
+        <v>-1015</v>
+      </c>
+      <c r="M67">
+        <v>-1</v>
+      </c>
+      <c r="N67">
+        <v>13776</v>
+      </c>
+      <c r="O67">
+        <v>35121</v>
+      </c>
+      <c r="P67">
+        <v>19024</v>
+      </c>
+      <c r="Q67">
+        <v>-1027</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>41054</v>
+      </c>
+      <c r="U67">
+        <v>1902</v>
+      </c>
+      <c r="V67">
+        <v>656</v>
+      </c>
+      <c r="W67">
+        <v>-696</v>
+      </c>
+      <c r="X67">
+        <v>-1637</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>883</v>
+      </c>
+      <c r="AA67">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>-74</v>
+      </c>
+      <c r="D68">
+        <v>7462</v>
+      </c>
+      <c r="E68">
+        <v>8925</v>
+      </c>
+      <c r="F68">
+        <v>994</v>
+      </c>
+      <c r="G68">
+        <v>21273</v>
+      </c>
+      <c r="H68">
+        <v>74862</v>
+      </c>
+      <c r="I68">
+        <v>9413</v>
+      </c>
+      <c r="J68">
+        <v>16628</v>
+      </c>
+      <c r="K68">
+        <v>2024</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>13527</v>
+      </c>
+      <c r="O68">
+        <v>34910</v>
+      </c>
+      <c r="P68">
+        <v>18852</v>
+      </c>
+      <c r="Q68">
+        <v>1</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>39952</v>
+      </c>
+      <c r="U68">
+        <v>1903</v>
+      </c>
+      <c r="V68">
+        <v>858</v>
+      </c>
+      <c r="W68">
+        <v>-697</v>
+      </c>
+      <c r="X68">
+        <v>-1332</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>1362</v>
+      </c>
+      <c r="AA68">
+        <v>-74</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>544</v>
+      </c>
+      <c r="D69">
+        <v>7905</v>
+      </c>
+      <c r="E69">
+        <v>9436</v>
+      </c>
+      <c r="F69">
+        <v>1108</v>
+      </c>
+      <c r="G69">
+        <v>19914</v>
+      </c>
+      <c r="H69">
+        <v>73569</v>
+      </c>
+      <c r="I69">
+        <v>9676</v>
+      </c>
+      <c r="J69">
+        <v>15915</v>
+      </c>
+      <c r="K69">
+        <v>1289</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>13014</v>
+      </c>
+      <c r="O69">
+        <v>33559</v>
+      </c>
+      <c r="P69">
+        <v>17204</v>
+      </c>
+      <c r="Q69">
+        <v>-213</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>40010</v>
+      </c>
+      <c r="U69">
+        <v>1690</v>
+      </c>
+      <c r="V69">
+        <v>1898</v>
+      </c>
+      <c r="W69">
+        <v>-693</v>
+      </c>
+      <c r="X69">
+        <v>-2342</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>1065</v>
+      </c>
+      <c r="AA69">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>-2254</v>
+      </c>
+      <c r="D70">
+        <v>8179</v>
+      </c>
+      <c r="E70">
+        <v>8084</v>
+      </c>
+      <c r="F70">
+        <v>1224</v>
+      </c>
+      <c r="G70">
+        <v>18497</v>
+      </c>
+      <c r="H70">
+        <v>71987</v>
+      </c>
+      <c r="I70">
+        <v>4614</v>
+      </c>
+      <c r="J70">
+        <v>14875</v>
+      </c>
+      <c r="K70">
+        <v>2024</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>15282</v>
+      </c>
+      <c r="O70">
+        <v>34726</v>
+      </c>
+      <c r="P70">
+        <v>18199</v>
+      </c>
+      <c r="Q70">
+        <v>109</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>100000</v>
+      </c>
+      <c r="T70">
+        <v>37261</v>
+      </c>
+      <c r="U70">
+        <v>1799</v>
+      </c>
+      <c r="V70">
+        <v>2251</v>
+      </c>
+      <c r="W70">
+        <v>-692</v>
+      </c>
+      <c r="X70">
+        <v>278</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>-33</v>
+      </c>
+      <c r="AA70">
+        <v>-2254</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>525</v>
+      </c>
+      <c r="D71">
+        <v>7829</v>
+      </c>
+      <c r="E71">
+        <v>8472</v>
+      </c>
+      <c r="F71">
+        <v>1027</v>
+      </c>
+      <c r="G71">
+        <v>18055</v>
+      </c>
+      <c r="H71">
+        <v>71478</v>
+      </c>
+      <c r="I71">
+        <v>8698</v>
+      </c>
+      <c r="J71">
+        <v>13526</v>
+      </c>
+      <c r="K71">
+        <v>3286</v>
+      </c>
+      <c r="L71">
+        <v>-105</v>
+      </c>
+      <c r="M71">
+        <v>-51</v>
+      </c>
+      <c r="N71">
+        <v>16195</v>
+      </c>
+      <c r="O71">
+        <v>34152</v>
+      </c>
+      <c r="P71">
+        <v>18112</v>
+      </c>
+      <c r="Q71">
+        <v>66</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>37326</v>
+      </c>
+      <c r="U71">
+        <v>1865</v>
+      </c>
+      <c r="V71">
+        <v>568</v>
+      </c>
+      <c r="W71">
+        <v>-692</v>
+      </c>
+      <c r="X71">
+        <v>-787</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>980</v>
+      </c>
+      <c r="AA71">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>430</v>
+      </c>
+      <c r="D72">
+        <v>8303</v>
+      </c>
+      <c r="E72">
+        <v>8606</v>
+      </c>
+      <c r="F72">
+        <v>1124</v>
+      </c>
+      <c r="G72">
+        <v>16900</v>
+      </c>
+      <c r="H72">
+        <v>70156</v>
+      </c>
+      <c r="I72">
+        <v>8567</v>
+      </c>
+      <c r="J72">
+        <v>13865</v>
+      </c>
+      <c r="K72">
+        <v>3036</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>15066</v>
+      </c>
+      <c r="O72">
+        <v>33259</v>
+      </c>
+      <c r="P72">
+        <v>17601</v>
+      </c>
+      <c r="Q72">
+        <v>-404</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>36897</v>
+      </c>
+      <c r="U72">
+        <v>1461</v>
+      </c>
+      <c r="V72">
+        <v>987</v>
+      </c>
+      <c r="W72">
+        <v>-693</v>
+      </c>
+      <c r="X72">
+        <v>-1264</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>712</v>
+      </c>
+      <c r="AA72">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>644</v>
+      </c>
+      <c r="D73">
+        <v>8504</v>
+      </c>
+      <c r="E73">
+        <v>8409</v>
+      </c>
+      <c r="F73">
+        <v>1180</v>
+      </c>
+      <c r="G73">
+        <v>16483</v>
+      </c>
+      <c r="H73">
+        <v>70046</v>
+      </c>
+      <c r="I73">
+        <v>8619</v>
+      </c>
+      <c r="J73">
+        <v>14159</v>
+      </c>
+      <c r="K73">
+        <v>2715</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>14600</v>
+      </c>
+      <c r="O73">
+        <v>33098</v>
+      </c>
+      <c r="P73">
+        <v>17374</v>
+      </c>
+      <c r="Q73">
+        <v>32</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>36948</v>
+      </c>
+      <c r="U73">
+        <v>1493</v>
+      </c>
+      <c r="V73">
+        <v>1827</v>
+      </c>
+      <c r="W73">
+        <v>-692</v>
+      </c>
+      <c r="X73">
+        <v>-900</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>230</v>
+      </c>
+      <c r="AA73">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>539</v>
+      </c>
+      <c r="D74">
+        <v>8179</v>
+      </c>
+      <c r="E74">
+        <v>7881</v>
+      </c>
+      <c r="F74">
+        <v>1007</v>
+      </c>
+      <c r="G74">
+        <v>15731</v>
+      </c>
+      <c r="H74">
+        <v>70507</v>
+      </c>
+      <c r="I74">
+        <v>4709</v>
+      </c>
+      <c r="J74">
+        <v>14644</v>
+      </c>
+      <c r="K74">
+        <v>1407</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>13486</v>
+      </c>
+      <c r="O74">
+        <v>33921</v>
+      </c>
+      <c r="P74">
+        <v>17851</v>
+      </c>
+      <c r="Q74">
+        <v>-60</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>100000</v>
+      </c>
+      <c r="T74">
+        <v>36586</v>
+      </c>
+      <c r="U74">
+        <v>1433</v>
+      </c>
+      <c r="V74">
+        <v>2331</v>
+      </c>
+      <c r="W74">
+        <v>-693</v>
+      </c>
+      <c r="X74">
+        <v>-2069</v>
+      </c>
+      <c r="Y74">
+        <v>1200</v>
+      </c>
+      <c r="Z74">
+        <v>21</v>
+      </c>
+      <c r="AA74">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>421</v>
+      </c>
+      <c r="D75">
+        <v>7879</v>
+      </c>
+      <c r="E75">
+        <v>8171</v>
+      </c>
+      <c r="F75">
+        <v>927</v>
+      </c>
+      <c r="G75">
+        <v>15773</v>
+      </c>
+      <c r="H75">
+        <v>70321</v>
+      </c>
+      <c r="I75">
+        <v>8702</v>
+      </c>
+      <c r="J75">
+        <v>16449</v>
+      </c>
+      <c r="K75">
+        <v>99</v>
+      </c>
+      <c r="L75">
+        <v>-38</v>
+      </c>
+      <c r="M75">
+        <v>-1368</v>
+      </c>
+      <c r="N75">
+        <v>11697</v>
+      </c>
+      <c r="O75">
+        <v>33797</v>
+      </c>
+      <c r="P75">
+        <v>16548</v>
+      </c>
+      <c r="Q75">
+        <v>-203</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>36524</v>
+      </c>
+      <c r="U75">
+        <v>1230</v>
+      </c>
+      <c r="V75">
+        <v>326</v>
+      </c>
+      <c r="W75">
+        <v>-692</v>
+      </c>
+      <c r="X75">
+        <v>-297</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <v>420</v>
+      </c>
+      <c r="AA75">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>492</v>
+      </c>
+      <c r="D76">
+        <v>8269</v>
+      </c>
+      <c r="E76">
+        <v>8471</v>
+      </c>
+      <c r="F76">
+        <v>1017</v>
+      </c>
+      <c r="G76">
+        <v>16333</v>
+      </c>
+      <c r="H76">
+        <v>70591</v>
+      </c>
+      <c r="I76">
+        <v>8851</v>
+      </c>
+      <c r="J76">
+        <v>16978</v>
+      </c>
+      <c r="K76">
+        <v>98</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>11773</v>
+      </c>
+      <c r="O76">
+        <v>34318</v>
+      </c>
+      <c r="P76">
+        <v>17076</v>
+      </c>
+      <c r="Q76">
+        <v>236</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>36273</v>
+      </c>
+      <c r="U76">
+        <v>1466</v>
+      </c>
+      <c r="V76">
+        <v>1108</v>
+      </c>
+      <c r="W76">
+        <v>-693</v>
+      </c>
+      <c r="X76">
+        <v>-234</v>
+      </c>
+      <c r="Y76">
+        <v>0</v>
+      </c>
+      <c r="Z76">
+        <v>44</v>
+      </c>
+      <c r="AA76">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>-11383</v>
+      </c>
+      <c r="D77">
+        <v>8541</v>
+      </c>
+      <c r="E77">
+        <v>8332</v>
+      </c>
+      <c r="F77">
+        <v>1067</v>
+      </c>
+      <c r="G77">
+        <v>16151</v>
+      </c>
+      <c r="H77">
+        <v>57990</v>
+      </c>
+      <c r="I77">
+        <v>9464</v>
+      </c>
+      <c r="J77">
+        <v>16333</v>
+      </c>
+      <c r="K77">
+        <v>40</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>12483</v>
+      </c>
+      <c r="O77">
+        <v>33663</v>
+      </c>
+      <c r="P77">
+        <v>16673</v>
+      </c>
+      <c r="Q77">
+        <v>-283</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>24327</v>
+      </c>
+      <c r="U77">
+        <v>1183</v>
+      </c>
+      <c r="V77">
+        <v>1745</v>
+      </c>
+      <c r="W77">
+        <v>-692</v>
+      </c>
+      <c r="X77">
+        <v>-1090</v>
+      </c>
+      <c r="Y77">
+        <v>0</v>
+      </c>
+      <c r="Z77">
+        <v>-226</v>
+      </c>
+      <c r="AA77">
+        <v>-11383</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>333</v>
+      </c>
+      <c r="D78">
+        <v>8228</v>
+      </c>
+      <c r="E78">
+        <v>7747</v>
+      </c>
+      <c r="F78">
+        <v>1191</v>
+      </c>
+      <c r="G78">
+        <v>15530</v>
+      </c>
+      <c r="H78">
+        <v>56312</v>
+      </c>
+      <c r="I78">
+        <v>4790</v>
+      </c>
+      <c r="J78">
+        <v>14770</v>
+      </c>
+      <c r="K78">
+        <v>524</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>13098</v>
+      </c>
+      <c r="O78">
+        <v>32136</v>
+      </c>
+      <c r="P78">
+        <v>16294</v>
+      </c>
+      <c r="Q78">
+        <v>-46</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>105000</v>
+      </c>
+      <c r="T78">
+        <v>24176</v>
+      </c>
+      <c r="U78">
+        <v>1137</v>
+      </c>
+      <c r="V78">
+        <v>2252</v>
+      </c>
+      <c r="W78">
+        <v>-692</v>
+      </c>
+      <c r="X78">
+        <v>-2097</v>
+      </c>
+      <c r="Y78">
+        <v>800</v>
+      </c>
+      <c r="Z78">
+        <v>317</v>
+      </c>
+      <c r="AA78">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>-7376</v>
+      </c>
+      <c r="D79">
+        <v>7455</v>
+      </c>
+      <c r="E79">
+        <v>7486</v>
+      </c>
+      <c r="F79">
+        <v>831</v>
+      </c>
+      <c r="G79">
+        <v>16266</v>
+      </c>
+      <c r="H79">
+        <v>48594</v>
+      </c>
+      <c r="I79">
+        <v>9068</v>
+      </c>
+      <c r="J79">
+        <v>15409</v>
+      </c>
+      <c r="K79">
+        <v>1233</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>-90</v>
+      </c>
+      <c r="N79">
+        <v>13262</v>
+      </c>
+      <c r="O79">
+        <v>32611</v>
+      </c>
+      <c r="P79">
+        <v>16642</v>
+      </c>
+      <c r="Q79">
+        <v>238</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>15983</v>
+      </c>
+      <c r="U79">
+        <v>1375</v>
+      </c>
+      <c r="V79">
+        <v>784</v>
+      </c>
+      <c r="W79">
+        <v>-692</v>
+      </c>
+      <c r="X79">
+        <v>777</v>
+      </c>
+      <c r="Y79">
+        <v>0</v>
+      </c>
+      <c r="Z79">
+        <v>-941</v>
+      </c>
+      <c r="AA79">
+        <v>-7376</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>-3434</v>
+      </c>
+      <c r="D80">
+        <v>5356</v>
+      </c>
+      <c r="E80">
+        <v>5808</v>
+      </c>
+      <c r="F80">
+        <v>431</v>
+      </c>
+      <c r="G80">
+        <v>14379</v>
+      </c>
+      <c r="H80">
+        <v>44667</v>
+      </c>
+      <c r="I80">
+        <v>8724</v>
+      </c>
+      <c r="J80">
+        <v>16763</v>
+      </c>
+      <c r="K80">
+        <v>603</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>11665</v>
+      </c>
+      <c r="O80">
+        <v>32211</v>
+      </c>
+      <c r="P80">
+        <v>17366</v>
+      </c>
+      <c r="Q80">
+        <v>87</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>12456</v>
+      </c>
+      <c r="U80">
+        <v>1462</v>
+      </c>
+      <c r="V80">
+        <v>803</v>
+      </c>
+      <c r="W80">
+        <v>-694</v>
+      </c>
+      <c r="X80">
+        <v>-167</v>
+      </c>
+      <c r="Y80">
+        <v>0</v>
+      </c>
+      <c r="Z80">
+        <v>-158</v>
+      </c>
+      <c r="AA80">
+        <v>-3434</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>-82</v>
+      </c>
+      <c r="D81">
+        <v>5258</v>
+      </c>
+      <c r="E81">
+        <v>5552</v>
+      </c>
+      <c r="F81">
+        <v>634</v>
+      </c>
+      <c r="G81">
+        <v>14215</v>
+      </c>
+      <c r="H81">
+        <v>44066</v>
+      </c>
+      <c r="I81">
+        <v>8201</v>
+      </c>
+      <c r="J81">
+        <v>16471</v>
+      </c>
+      <c r="K81">
+        <v>1292</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>11651</v>
+      </c>
+      <c r="O81">
+        <v>31697</v>
+      </c>
+      <c r="P81">
+        <v>17763</v>
+      </c>
+      <c r="Q81">
+        <v>-243</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>12369</v>
+      </c>
+      <c r="U81">
+        <v>1219</v>
+      </c>
+      <c r="V81">
+        <v>479</v>
+      </c>
+      <c r="W81">
+        <v>-174</v>
+      </c>
+      <c r="X81">
+        <v>21</v>
+      </c>
+      <c r="Y81">
+        <v>0</v>
+      </c>
+      <c r="Z81">
+        <v>-498</v>
+      </c>
+      <c r="AA81">
+        <v>-82</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>374</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>5532</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>5247</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>704</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>12919</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>42434</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>2937</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>16036</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>10491</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>29945</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>17897</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>-375</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>86000</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>12489</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>844</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>878</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-174</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-1504</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>763</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>456</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>374</v>
       </c>
     </row>
